--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4183.431698041026</v>
+        <v>4350.06344531432</v>
       </c>
       <c r="AB2" t="n">
-        <v>5723.955809240987</v>
+        <v>5951.948717134183</v>
       </c>
       <c r="AC2" t="n">
-        <v>5177.669500429246</v>
+        <v>5383.903085183162</v>
       </c>
       <c r="AD2" t="n">
-        <v>4183431.698041026</v>
+        <v>4350063.44531432</v>
       </c>
       <c r="AE2" t="n">
-        <v>5723955.809240987</v>
+        <v>5951948.717134183</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.404909905196807e-07</v>
+        <v>1.082781798203298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.63628472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>5177669.500429246</v>
+        <v>5383903.085183162</v>
       </c>
     </row>
     <row r="3">
@@ -6208,28 +6208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1990.245526908151</v>
+        <v>2094.305117607938</v>
       </c>
       <c r="AB3" t="n">
-        <v>2723.141733351524</v>
+        <v>2865.520656132113</v>
       </c>
       <c r="AC3" t="n">
-        <v>2463.24890827388</v>
+        <v>2592.039386494363</v>
       </c>
       <c r="AD3" t="n">
-        <v>1990245.526908151</v>
+        <v>2094305.117607939</v>
       </c>
       <c r="AE3" t="n">
-        <v>2723141.733351524</v>
+        <v>2865520.656132113</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01208780426142e-06</v>
+        <v>1.71098464905594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.01953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2463248.90827388</v>
+        <v>2592039.386494364</v>
       </c>
     </row>
     <row r="4">
@@ -6314,28 +6314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1614.4125979121</v>
+        <v>1708.142955753328</v>
       </c>
       <c r="AB4" t="n">
-        <v>2208.910539320498</v>
+        <v>2337.156550010413</v>
       </c>
       <c r="AC4" t="n">
-        <v>1998.095217673163</v>
+        <v>2114.101609097238</v>
       </c>
       <c r="AD4" t="n">
-        <v>1614412.5979121</v>
+        <v>1708142.955753328</v>
       </c>
       <c r="AE4" t="n">
-        <v>2208910.539320498</v>
+        <v>2337156.550010413</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.15409754137227e-06</v>
+        <v>1.951059155625505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.55642361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1998095.217673162</v>
+        <v>2114101.609097239</v>
       </c>
     </row>
     <row r="5">
@@ -6420,28 +6420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1461.101718443058</v>
+        <v>1544.332340733684</v>
       </c>
       <c r="AB5" t="n">
-        <v>1999.143830432304</v>
+        <v>2113.023639726246</v>
       </c>
       <c r="AC5" t="n">
-        <v>1808.348349071832</v>
+        <v>1911.359629198076</v>
       </c>
       <c r="AD5" t="n">
-        <v>1461101.718443058</v>
+        <v>1544332.340733684</v>
       </c>
       <c r="AE5" t="n">
-        <v>1999143.830432304</v>
+        <v>2113023.639726246</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.229070466355842e-06</v>
+        <v>2.077804605181955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1808348.349071832</v>
+        <v>1911359.629198076</v>
       </c>
     </row>
     <row r="6">
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1369.145641704613</v>
+        <v>1462.705317836697</v>
       </c>
       <c r="AB6" t="n">
-        <v>1873.325469422972</v>
+        <v>2001.337945868493</v>
       </c>
       <c r="AC6" t="n">
-        <v>1694.537915850053</v>
+        <v>1810.333061210252</v>
       </c>
       <c r="AD6" t="n">
-        <v>1369145.641704613</v>
+        <v>1462705.317836697</v>
       </c>
       <c r="AE6" t="n">
-        <v>1873325.469422973</v>
+        <v>2001337.945868493</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276593777459999e-06</v>
+        <v>2.158145120529692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.87239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1694537.915850053</v>
+        <v>1810333.061210252</v>
       </c>
     </row>
     <row r="7">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1314.277636775916</v>
+        <v>1397.422918211971</v>
       </c>
       <c r="AB7" t="n">
-        <v>1798.252644473991</v>
+        <v>1912.015686645735</v>
       </c>
       <c r="AC7" t="n">
-        <v>1626.62993594883</v>
+        <v>1729.535593043136</v>
       </c>
       <c r="AD7" t="n">
-        <v>1314277.636775916</v>
+        <v>1397422.918211971</v>
       </c>
       <c r="AE7" t="n">
-        <v>1798252.644473991</v>
+        <v>1912015.686645735</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.309178523187604e-06</v>
+        <v>2.213231249913504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.47743055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1626629.93594883</v>
+        <v>1729535.593043136</v>
       </c>
     </row>
     <row r="8">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1275.251146539523</v>
+        <v>1358.396427975578</v>
       </c>
       <c r="AB8" t="n">
-        <v>1744.854878805322</v>
+        <v>1858.617920977067</v>
       </c>
       <c r="AC8" t="n">
-        <v>1578.328378091345</v>
+        <v>1681.234035185651</v>
       </c>
       <c r="AD8" t="n">
-        <v>1275251.146539523</v>
+        <v>1358396.427975578</v>
       </c>
       <c r="AE8" t="n">
-        <v>1744854.878805322</v>
+        <v>1858617.920977067</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.332986861756484e-06</v>
+        <v>2.25348042754351e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.19965277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1578328.378091345</v>
+        <v>1681234.03518565</v>
       </c>
     </row>
     <row r="9">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1233.706304822259</v>
+        <v>1316.936837604334</v>
       </c>
       <c r="AB9" t="n">
-        <v>1688.0113935387</v>
+        <v>1801.891080363094</v>
       </c>
       <c r="AC9" t="n">
-        <v>1526.909955278236</v>
+        <v>1629.921124623254</v>
       </c>
       <c r="AD9" t="n">
-        <v>1233706.304822259</v>
+        <v>1316936.837604334</v>
       </c>
       <c r="AE9" t="n">
-        <v>1688011.3935387</v>
+        <v>1801891.080363094</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.351473336409968e-06</v>
+        <v>2.284732730173868e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.99348958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1526909.955278236</v>
+        <v>1629921.124623254</v>
       </c>
     </row>
     <row r="10">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1215.763687874479</v>
+        <v>1298.994220656554</v>
       </c>
       <c r="AB10" t="n">
-        <v>1663.461513458354</v>
+        <v>1777.341200282747</v>
       </c>
       <c r="AC10" t="n">
-        <v>1504.703081296785</v>
+        <v>1607.714250641803</v>
       </c>
       <c r="AD10" t="n">
-        <v>1215763.687874479</v>
+        <v>1298994.220656554</v>
       </c>
       <c r="AE10" t="n">
-        <v>1663461.513458354</v>
+        <v>1777341.200282747</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.361090037871123e-06</v>
+        <v>2.300990241138145e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.88715277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1504703.081296785</v>
+        <v>1607714.250641803</v>
       </c>
     </row>
     <row r="11">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1193.311692817226</v>
+        <v>1276.5422255993</v>
       </c>
       <c r="AB11" t="n">
-        <v>1632.741703308904</v>
+        <v>1746.621390133297</v>
       </c>
       <c r="AC11" t="n">
-        <v>1476.915126712475</v>
+        <v>1579.926296057492</v>
       </c>
       <c r="AD11" t="n">
-        <v>1193311.692817226</v>
+        <v>1276542.2255993</v>
       </c>
       <c r="AE11" t="n">
-        <v>1632741.703308904</v>
+        <v>1746621.390133297</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.373320988273175e-06</v>
+        <v>2.321667269646109e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.75477430555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1476915.126712475</v>
+        <v>1579926.296057492</v>
       </c>
     </row>
     <row r="12">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1173.941484322457</v>
+        <v>1257.172017104532</v>
       </c>
       <c r="AB12" t="n">
-        <v>1606.238529493074</v>
+        <v>1720.118216317468</v>
       </c>
       <c r="AC12" t="n">
-        <v>1452.94137860819</v>
+        <v>1555.952547953207</v>
       </c>
       <c r="AD12" t="n">
-        <v>1173941.484322457</v>
+        <v>1257172.017104532</v>
       </c>
       <c r="AE12" t="n">
-        <v>1606238.529493074</v>
+        <v>1720118.216317468</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.383124421801538e-06</v>
+        <v>2.338240460434935e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.6484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1452941.37860819</v>
+        <v>1555952.547953207</v>
       </c>
     </row>
     <row r="13">
@@ -7268,28 +7268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1157.017611504928</v>
+        <v>1240.248144287003</v>
       </c>
       <c r="AB13" t="n">
-        <v>1583.082540075558</v>
+        <v>1696.962226899951</v>
       </c>
       <c r="AC13" t="n">
-        <v>1431.995364321045</v>
+        <v>1535.006533666063</v>
       </c>
       <c r="AD13" t="n">
-        <v>1157017.611504928</v>
+        <v>1240248.144287003</v>
       </c>
       <c r="AE13" t="n">
-        <v>1583082.540075558</v>
+        <v>1696962.226899951</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.391153900691435e-06</v>
+        <v>2.351814692890545e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.56380208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1431995.364321045</v>
+        <v>1535006.533666063</v>
       </c>
     </row>
     <row r="14">
@@ -7374,28 +7374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1139.880633646809</v>
+        <v>1212.696771732854</v>
       </c>
       <c r="AB14" t="n">
-        <v>1559.634970939973</v>
+        <v>1659.265223490591</v>
       </c>
       <c r="AC14" t="n">
-        <v>1410.785598274891</v>
+        <v>1500.907279354016</v>
       </c>
       <c r="AD14" t="n">
-        <v>1139880.633646809</v>
+        <v>1212696.771732854</v>
       </c>
       <c r="AE14" t="n">
-        <v>1559634.970939973</v>
+        <v>1659265.223490591</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.39778288907728e-06</v>
+        <v>2.363021326662036e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.49435763888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1410785.598274891</v>
+        <v>1500907.279354016</v>
       </c>
     </row>
     <row r="15">
@@ -7480,28 +7480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1124.641997231135</v>
+        <v>1197.45813531718</v>
       </c>
       <c r="AB15" t="n">
-        <v>1538.784796314857</v>
+        <v>1638.415048865474</v>
       </c>
       <c r="AC15" t="n">
-        <v>1391.925335052592</v>
+        <v>1482.047016131717</v>
       </c>
       <c r="AD15" t="n">
-        <v>1124641.997231135</v>
+        <v>1197458.13531718</v>
       </c>
       <c r="AE15" t="n">
-        <v>1538784.796314857</v>
+        <v>1638415.048865474</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.404411877463125e-06</v>
+        <v>2.374227960433528e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1391925.335052592</v>
+        <v>1482047.016131717</v>
       </c>
     </row>
     <row r="16">
@@ -7586,28 +7586,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1110.283200057214</v>
+        <v>1183.099338143259</v>
       </c>
       <c r="AB16" t="n">
-        <v>1519.138456556074</v>
+        <v>1618.768709106692</v>
       </c>
       <c r="AC16" t="n">
-        <v>1374.154014386576</v>
+        <v>1464.275695465701</v>
       </c>
       <c r="AD16" t="n">
-        <v>1110283.200057214</v>
+        <v>1183099.338143259</v>
       </c>
       <c r="AE16" t="n">
-        <v>1519138.456556074</v>
+        <v>1618768.709106692</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.409266911210505e-06</v>
+        <v>2.382435635871804e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.37717013888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1374154.014386576</v>
+        <v>1464275.695465701</v>
       </c>
     </row>
     <row r="17">
@@ -7692,28 +7692,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1098.601385006926</v>
+        <v>1171.417523092972</v>
       </c>
       <c r="AB17" t="n">
-        <v>1503.154881838963</v>
+        <v>1602.785134389582</v>
       </c>
       <c r="AC17" t="n">
-        <v>1359.695889607379</v>
+        <v>1449.817570686504</v>
       </c>
       <c r="AD17" t="n">
-        <v>1098601.385006926</v>
+        <v>1171417.523092972</v>
       </c>
       <c r="AE17" t="n">
-        <v>1503154.881838963</v>
+        <v>1602785.134389582</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.413188284621849e-06</v>
+        <v>2.389064912187334e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.33810763888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1359695.889607379</v>
+        <v>1449817.570686504</v>
       </c>
     </row>
     <row r="18">
@@ -7798,28 +7798,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1086.348599165096</v>
+        <v>1159.164737251142</v>
       </c>
       <c r="AB18" t="n">
-        <v>1486.390079695411</v>
+        <v>1586.020332246029</v>
       </c>
       <c r="AC18" t="n">
-        <v>1344.531096650859</v>
+        <v>1434.652777729984</v>
       </c>
       <c r="AD18" t="n">
-        <v>1086348.599165096</v>
+        <v>1159164.737251142</v>
       </c>
       <c r="AE18" t="n">
-        <v>1486390.079695411</v>
+        <v>1586020.332246029</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.416642827865177e-06</v>
+        <v>2.394904988941492e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.30338541666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1344531.096650859</v>
+        <v>1434652.777729984</v>
       </c>
     </row>
     <row r="19">
@@ -7904,28 +7904,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1075.389842176649</v>
+        <v>1148.205980262695</v>
       </c>
       <c r="AB19" t="n">
-        <v>1471.395824917581</v>
+        <v>1571.026077468199</v>
       </c>
       <c r="AC19" t="n">
-        <v>1330.967872504456</v>
+        <v>1421.089553583581</v>
       </c>
       <c r="AD19" t="n">
-        <v>1075389.842176649</v>
+        <v>1148205.980262695</v>
       </c>
       <c r="AE19" t="n">
-        <v>1471395.82491758</v>
+        <v>1571026.077468199</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.420097371108505e-06</v>
+        <v>2.40074506569565e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.26866319444444</v>
       </c>
       <c r="AH19" t="n">
-        <v>1330967.872504456</v>
+        <v>1421089.553583581</v>
       </c>
     </row>
     <row r="20">
@@ -8010,28 +8010,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1061.674369192054</v>
+        <v>1134.490507278099</v>
       </c>
       <c r="AB20" t="n">
-        <v>1452.629709696094</v>
+        <v>1552.259962246712</v>
       </c>
       <c r="AC20" t="n">
-        <v>1313.9927689813</v>
+        <v>1404.114450060425</v>
       </c>
       <c r="AD20" t="n">
-        <v>1061674.369192054</v>
+        <v>1134490.507278099</v>
       </c>
       <c r="AE20" t="n">
-        <v>1452629.709696094</v>
+        <v>1552259.962246712</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.423832012452643e-06</v>
+        <v>2.407058662186631e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.22960069444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>1313992.7689813</v>
+        <v>1404114.450060425</v>
       </c>
     </row>
     <row r="21">
@@ -8116,28 +8116,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1047.654361491991</v>
+        <v>1120.470499578036</v>
       </c>
       <c r="AB21" t="n">
-        <v>1433.446916641781</v>
+        <v>1533.077169192399</v>
       </c>
       <c r="AC21" t="n">
-        <v>1296.640754772872</v>
+        <v>1386.762435851996</v>
       </c>
       <c r="AD21" t="n">
-        <v>1047654.361491991</v>
+        <v>1120470.499578036</v>
       </c>
       <c r="AE21" t="n">
-        <v>1433446.916641781</v>
+        <v>1533077.169192399</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.426913091561557e-06</v>
+        <v>2.412267379291691e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.19921875</v>
       </c>
       <c r="AH21" t="n">
-        <v>1296640.754772871</v>
+        <v>1386762.435851996</v>
       </c>
     </row>
     <row r="22">
@@ -8222,28 +8222,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1039.670539939123</v>
+        <v>1112.486678025168</v>
       </c>
       <c r="AB22" t="n">
-        <v>1422.523099771798</v>
+        <v>1522.153352322416</v>
       </c>
       <c r="AC22" t="n">
-        <v>1286.759491653287</v>
+        <v>1376.881172732411</v>
       </c>
       <c r="AD22" t="n">
-        <v>1039670.539939123</v>
+        <v>1112486.678025168</v>
       </c>
       <c r="AE22" t="n">
-        <v>1422523.099771798</v>
+        <v>1522153.352322416</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.429060510334436e-06</v>
+        <v>2.415897697274005e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.17751736111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>1286759.491653287</v>
+        <v>1376881.172732411</v>
       </c>
     </row>
     <row r="23">
@@ -8328,28 +8328,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1043.946168630406</v>
+        <v>1116.762306716451</v>
       </c>
       <c r="AB23" t="n">
-        <v>1428.373203574636</v>
+        <v>1528.003456125254</v>
       </c>
       <c r="AC23" t="n">
-        <v>1292.051269759854</v>
+        <v>1382.172950838979</v>
       </c>
       <c r="AD23" t="n">
-        <v>1043946.168630406</v>
+        <v>1116762.306716451</v>
       </c>
       <c r="AE23" t="n">
-        <v>1428373.203574636</v>
+        <v>1528003.456125254</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.428313582065609e-06</v>
+        <v>2.414634977975809e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.18619791666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1292051.269759854</v>
+        <v>1382172.950838979</v>
       </c>
     </row>
     <row r="24">
@@ -8434,28 +8434,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1046.895797929521</v>
+        <v>1119.711936015566</v>
       </c>
       <c r="AB24" t="n">
-        <v>1432.409016510146</v>
+        <v>1532.039269060764</v>
       </c>
       <c r="AC24" t="n">
-        <v>1295.701910373098</v>
+        <v>1385.823591452223</v>
       </c>
       <c r="AD24" t="n">
-        <v>1046895.79792952</v>
+        <v>1119711.936015566</v>
       </c>
       <c r="AE24" t="n">
-        <v>1432409.016510146</v>
+        <v>1532039.269060764</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.427660019830384e-06</v>
+        <v>2.413530098589886e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.19270833333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>1295701.910373098</v>
+        <v>1385823.591452223</v>
       </c>
     </row>
     <row r="25">
@@ -8540,28 +8540,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1050.01625355168</v>
+        <v>1122.832391637726</v>
       </c>
       <c r="AB25" t="n">
-        <v>1436.678561557172</v>
+        <v>1536.30881410779</v>
       </c>
       <c r="AC25" t="n">
-        <v>1299.56397603318</v>
+        <v>1389.685657112304</v>
       </c>
       <c r="AD25" t="n">
-        <v>1050016.25355168</v>
+        <v>1122832.391637726</v>
       </c>
       <c r="AE25" t="n">
-        <v>1436678.561557172</v>
+        <v>1536308.81410779</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.428220216032005e-06</v>
+        <v>2.414477138063534e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.18619791666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1299563.97603318</v>
+        <v>1389685.657112304</v>
       </c>
     </row>
   </sheetData>
@@ -8837,28 +8837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2895.682107116072</v>
+        <v>3036.864716075542</v>
       </c>
       <c r="AB2" t="n">
-        <v>3962.000007434967</v>
+        <v>4155.172281550444</v>
       </c>
       <c r="AC2" t="n">
-        <v>3583.872287427159</v>
+        <v>3758.608470820038</v>
       </c>
       <c r="AD2" t="n">
-        <v>2895682.107116072</v>
+        <v>3036864.716075542</v>
       </c>
       <c r="AE2" t="n">
-        <v>3962000.007434967</v>
+        <v>4155172.281550445</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.864020354395059e-07</v>
+        <v>1.361883973240538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.65364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3583872.287427159</v>
+        <v>3758608.470820038</v>
       </c>
     </row>
     <row r="3">
@@ -8943,28 +8943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1597.265027013657</v>
+        <v>1698.085364597686</v>
       </c>
       <c r="AB3" t="n">
-        <v>2185.448476319811</v>
+        <v>2323.395310081658</v>
       </c>
       <c r="AC3" t="n">
-        <v>1976.872341036049</v>
+        <v>2101.653722593263</v>
       </c>
       <c r="AD3" t="n">
-        <v>1597265.027013657</v>
+        <v>1698085.364597686</v>
       </c>
       <c r="AE3" t="n">
-        <v>2185448.476319811</v>
+        <v>2323395.310081658</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.130634024423343e-06</v>
+        <v>1.958021836250766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.53732638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1976872.341036048</v>
+        <v>2101653.722593263</v>
       </c>
     </row>
     <row r="4">
@@ -9049,28 +9049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1343.521383953393</v>
+        <v>1434.251153693563</v>
       </c>
       <c r="AB4" t="n">
-        <v>1838.265229505286</v>
+        <v>1962.40570317873</v>
       </c>
       <c r="AC4" t="n">
-        <v>1662.823776022755</v>
+        <v>1775.116457121054</v>
       </c>
       <c r="AD4" t="n">
-        <v>1343521.383953393</v>
+        <v>1434251.153693563</v>
       </c>
       <c r="AE4" t="n">
-        <v>1838265.229505286</v>
+        <v>1962405.70317873</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.256678565844192e-06</v>
+        <v>2.176304639625723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.6796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1662823.776022755</v>
+        <v>1775116.457121054</v>
       </c>
     </row>
     <row r="5">
@@ -9155,28 +9155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1229.715970783815</v>
+        <v>1320.360399669413</v>
       </c>
       <c r="AB5" t="n">
-        <v>1682.551642466187</v>
+        <v>1806.575349017433</v>
       </c>
       <c r="AC5" t="n">
-        <v>1521.971275185275</v>
+        <v>1634.158333251636</v>
       </c>
       <c r="AD5" t="n">
-        <v>1229715.970783815</v>
+        <v>1320360.399669413</v>
       </c>
       <c r="AE5" t="n">
-        <v>1682551.642466187</v>
+        <v>1806575.349017433</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323033048569191e-06</v>
+        <v>2.291216736115069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.84418402777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1521971.275185275</v>
+        <v>1634158.333251636</v>
       </c>
     </row>
     <row r="6">
@@ -9261,28 +9261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1166.76139134218</v>
+        <v>1247.315341892469</v>
       </c>
       <c r="AB6" t="n">
-        <v>1596.414409514113</v>
+        <v>1706.631878446503</v>
       </c>
       <c r="AC6" t="n">
-        <v>1444.054858851781</v>
+        <v>1543.753327240453</v>
       </c>
       <c r="AD6" t="n">
-        <v>1166761.39134218</v>
+        <v>1247315.341892469</v>
       </c>
       <c r="AE6" t="n">
-        <v>1596414.409514113</v>
+        <v>1706631.878446503</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.365241067420464e-06</v>
+        <v>2.36431220360538e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.35373263888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1444054.858851781</v>
+        <v>1543753.327240453</v>
       </c>
     </row>
     <row r="7">
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1124.923924417611</v>
+        <v>1195.557988833183</v>
       </c>
       <c r="AB7" t="n">
-        <v>1539.170541529143</v>
+        <v>1635.815184617524</v>
       </c>
       <c r="AC7" t="n">
-        <v>1392.274265285023</v>
+        <v>1479.695279278658</v>
       </c>
       <c r="AD7" t="n">
-        <v>1124923.924417611</v>
+        <v>1195557.988833183</v>
       </c>
       <c r="AE7" t="n">
-        <v>1539170.541529143</v>
+        <v>1635815.184617524</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.392768036236511e-06</v>
+        <v>2.411983160664279e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.04991319444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1392274.265285023</v>
+        <v>1479695.279278658</v>
       </c>
     </row>
     <row r="8">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1079.960193292959</v>
+        <v>1160.599395189268</v>
       </c>
       <c r="AB8" t="n">
-        <v>1477.649180944576</v>
+        <v>1587.983294529615</v>
       </c>
       <c r="AC8" t="n">
-        <v>1336.624417008876</v>
+        <v>1436.42839764826</v>
       </c>
       <c r="AD8" t="n">
-        <v>1079960.193292959</v>
+        <v>1160599.395189268</v>
       </c>
       <c r="AE8" t="n">
-        <v>1477649.180944576</v>
+        <v>1587983.294529615</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.414499853722865e-06</v>
+        <v>2.44961812676341e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1336624.417008876</v>
+        <v>1436428.39764826</v>
       </c>
     </row>
     <row r="9">
@@ -9579,28 +9579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1060.355427538284</v>
+        <v>1140.994629434593</v>
       </c>
       <c r="AB9" t="n">
-        <v>1450.825075537807</v>
+        <v>1561.159189122845</v>
       </c>
       <c r="AC9" t="n">
-        <v>1312.36036657426</v>
+        <v>1412.164347213644</v>
       </c>
       <c r="AD9" t="n">
-        <v>1060355.427538284</v>
+        <v>1140994.629434593</v>
       </c>
       <c r="AE9" t="n">
-        <v>1450825.075537807</v>
+        <v>1561159.189122845</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.424834540260819e-06</v>
+        <v>2.467515643974997e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.71137152777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1312360.36657426</v>
+        <v>1412164.347213644</v>
       </c>
     </row>
     <row r="10">
@@ -9685,28 +9685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1034.484931568007</v>
+        <v>1115.124133464316</v>
       </c>
       <c r="AB10" t="n">
-        <v>1415.427921625542</v>
+        <v>1525.762035210581</v>
       </c>
       <c r="AC10" t="n">
-        <v>1280.341467351165</v>
+        <v>1380.145447990548</v>
       </c>
       <c r="AD10" t="n">
-        <v>1034484.931568007</v>
+        <v>1115124.133464316</v>
       </c>
       <c r="AE10" t="n">
-        <v>1415427.921625542</v>
+        <v>1525762.035210581</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.439805347862529e-06</v>
+        <v>2.493441953954397e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1280341.467351165</v>
+        <v>1380145.447990548</v>
       </c>
     </row>
     <row r="11">
@@ -9791,28 +9791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1013.497823903465</v>
+        <v>1084.046547464465</v>
       </c>
       <c r="AB11" t="n">
-        <v>1386.712435033071</v>
+        <v>1483.240310999254</v>
       </c>
       <c r="AC11" t="n">
-        <v>1254.36654649664</v>
+        <v>1341.681937458336</v>
       </c>
       <c r="AD11" t="n">
-        <v>1013497.823903465</v>
+        <v>1084046.547464465</v>
       </c>
       <c r="AE11" t="n">
-        <v>1386712.435033071</v>
+        <v>1483240.310999254</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.448691246568061e-06</v>
+        <v>2.508830473426042e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.46831597222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1254366.54649664</v>
+        <v>1341681.937458336</v>
       </c>
     </row>
     <row r="12">
@@ -9897,28 +9897,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>991.6956806171241</v>
+        <v>1062.244404178125</v>
       </c>
       <c r="AB12" t="n">
-        <v>1356.881780746022</v>
+        <v>1453.409656712204</v>
       </c>
       <c r="AC12" t="n">
-        <v>1227.382887987161</v>
+        <v>1314.698278948856</v>
       </c>
       <c r="AD12" t="n">
-        <v>991695.6806171242</v>
+        <v>1062244.404178125</v>
       </c>
       <c r="AE12" t="n">
-        <v>1356881.780746022</v>
+        <v>1453409.656712204</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.458253246262056e-06</v>
+        <v>2.525389858509659e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.37282986111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1227382.887987161</v>
+        <v>1314698.278948856</v>
       </c>
     </row>
     <row r="13">
@@ -10003,28 +10003,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>973.6946186081491</v>
+        <v>1044.24334216915</v>
       </c>
       <c r="AB13" t="n">
-        <v>1332.251933554534</v>
+        <v>1428.779809520717</v>
       </c>
       <c r="AC13" t="n">
-        <v>1205.103678843421</v>
+        <v>1292.419069805116</v>
       </c>
       <c r="AD13" t="n">
-        <v>973694.6186081491</v>
+        <v>1044243.34216915</v>
       </c>
       <c r="AE13" t="n">
-        <v>1332251.933554534</v>
+        <v>1428779.809520717</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.464724498580215e-06</v>
+        <v>2.5365967150814e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.30989583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1205103.678843421</v>
+        <v>1292419.069805116</v>
       </c>
     </row>
     <row r="14">
@@ -10109,28 +10109,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>951.2688399361696</v>
+        <v>1021.81756349717</v>
       </c>
       <c r="AB14" t="n">
-        <v>1301.567993820002</v>
+        <v>1398.095869786185</v>
       </c>
       <c r="AC14" t="n">
-        <v>1177.348171251973</v>
+        <v>1264.663562213668</v>
       </c>
       <c r="AD14" t="n">
-        <v>951268.8399361696</v>
+        <v>1021817.56349717</v>
       </c>
       <c r="AE14" t="n">
-        <v>1301567.993820002</v>
+        <v>1398095.869786185</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.474962599262674e-06</v>
+        <v>2.554326965776991e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.21006944444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1177348.171251973</v>
+        <v>1264663.562213668</v>
       </c>
     </row>
     <row r="15">
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>939.9256206545276</v>
+        <v>1010.474344215528</v>
       </c>
       <c r="AB15" t="n">
-        <v>1286.047700771343</v>
+        <v>1382.575576737526</v>
       </c>
       <c r="AC15" t="n">
-        <v>1163.30911318901</v>
+        <v>1250.624504150705</v>
       </c>
       <c r="AD15" t="n">
-        <v>939925.6206545276</v>
+        <v>1010474.344215528</v>
       </c>
       <c r="AE15" t="n">
-        <v>1286047.700771343</v>
+        <v>1382575.576737526</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.474769427551685e-06</v>
+        <v>2.553992432744999e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1163309.11318901</v>
+        <v>1250624.504150705</v>
       </c>
     </row>
     <row r="16">
@@ -10321,28 +10321,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>935.0779644185393</v>
+        <v>1005.62668797954</v>
       </c>
       <c r="AB16" t="n">
-        <v>1279.414923645765</v>
+        <v>1375.942799611947</v>
       </c>
       <c r="AC16" t="n">
-        <v>1157.309359003136</v>
+        <v>1244.62474996483</v>
       </c>
       <c r="AD16" t="n">
-        <v>935077.9644185393</v>
+        <v>1005626.68797954</v>
       </c>
       <c r="AE16" t="n">
-        <v>1279414.923645765</v>
+        <v>1375942.799611947</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.476121629528613e-06</v>
+        <v>2.556334163968944e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.19921875</v>
       </c>
       <c r="AH16" t="n">
-        <v>1157309.359003135</v>
+        <v>1244624.74996483</v>
       </c>
     </row>
     <row r="17">
@@ -10427,28 +10427,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>933.6926128572746</v>
+        <v>1004.241336418275</v>
       </c>
       <c r="AB17" t="n">
-        <v>1277.519424522245</v>
+        <v>1374.047300488428</v>
       </c>
       <c r="AC17" t="n">
-        <v>1155.594763655615</v>
+        <v>1242.91015461731</v>
       </c>
       <c r="AD17" t="n">
-        <v>933692.6128572746</v>
+        <v>1004241.336418275</v>
       </c>
       <c r="AE17" t="n">
-        <v>1277519.424522245</v>
+        <v>1374047.300488428</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.477377245650047e-06</v>
+        <v>2.558508628676894e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.18836805555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>1155594.763655615</v>
+        <v>1242910.15461731</v>
       </c>
     </row>
   </sheetData>
@@ -10724,28 +10724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1159.553670496885</v>
+        <v>1250.621985769467</v>
       </c>
       <c r="AB2" t="n">
-        <v>1586.552487871378</v>
+        <v>1711.156174477843</v>
       </c>
       <c r="AC2" t="n">
-        <v>1435.134145169335</v>
+        <v>1547.845830808452</v>
       </c>
       <c r="AD2" t="n">
-        <v>1159553.670496885</v>
+        <v>1250621.985769467</v>
       </c>
       <c r="AE2" t="n">
-        <v>1586552.487871378</v>
+        <v>1711156.174477843</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248150895102674e-06</v>
+        <v>2.361770082775327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.73914930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1435134.145169335</v>
+        <v>1547845.830808452</v>
       </c>
     </row>
     <row r="3">
@@ -10830,28 +10830,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>845.9360515206147</v>
+        <v>918.8589764223376</v>
       </c>
       <c r="AB3" t="n">
-        <v>1157.447025755181</v>
+        <v>1257.223388738111</v>
       </c>
       <c r="AC3" t="n">
-        <v>1046.981906104209</v>
+        <v>1137.235753041053</v>
       </c>
       <c r="AD3" t="n">
-        <v>845936.0515206147</v>
+        <v>918858.9764223376</v>
       </c>
       <c r="AE3" t="n">
-        <v>1157447.025755181</v>
+        <v>1257223.388738111</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.487305271774191e-06</v>
+        <v>2.814301627001081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.72482638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1046981.906104209</v>
+        <v>1137235.753041053</v>
       </c>
     </row>
     <row r="4">
@@ -10936,28 +10936,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>748.7958815580804</v>
+        <v>821.6334656052318</v>
       </c>
       <c r="AB4" t="n">
-        <v>1024.535559690599</v>
+        <v>1124.195155551332</v>
       </c>
       <c r="AC4" t="n">
-        <v>926.7553238184173</v>
+        <v>1016.903547723323</v>
       </c>
       <c r="AD4" t="n">
-        <v>748795.8815580804</v>
+        <v>821633.4656052318</v>
       </c>
       <c r="AE4" t="n">
-        <v>1024535.5596906</v>
+        <v>1124195.155551332</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.56975371618776e-06</v>
+        <v>2.970311825889184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.90017361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>926755.3238184173</v>
+        <v>1016903.547723323</v>
       </c>
     </row>
     <row r="5">
@@ -11042,28 +11042,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>692.8938237537731</v>
+        <v>756.6161316967599</v>
       </c>
       <c r="AB5" t="n">
-        <v>948.0478979780132</v>
+        <v>1035.235570935428</v>
       </c>
       <c r="AC5" t="n">
-        <v>857.5675371885728</v>
+        <v>936.4341410075992</v>
       </c>
       <c r="AD5" t="n">
-        <v>692893.8237537731</v>
+        <v>756616.13169676</v>
       </c>
       <c r="AE5" t="n">
-        <v>948047.8979780133</v>
+        <v>1035235.570935428</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.614265098596654e-06</v>
+        <v>3.05453693979871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>857567.5371885728</v>
+        <v>936434.1410075992</v>
       </c>
     </row>
     <row r="6">
@@ -11148,28 +11148,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>686.5409562149397</v>
+        <v>750.2632641579266</v>
       </c>
       <c r="AB6" t="n">
-        <v>939.3556243426461</v>
+        <v>1026.543297300061</v>
       </c>
       <c r="AC6" t="n">
-        <v>849.7048419492824</v>
+        <v>928.5714457683089</v>
       </c>
       <c r="AD6" t="n">
-        <v>686540.9562149397</v>
+        <v>750263.2641579267</v>
       </c>
       <c r="AE6" t="n">
-        <v>939355.6243426461</v>
+        <v>1026543.297300061</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.618252801136919e-06</v>
+        <v>3.062082531117481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>849704.8419492823</v>
+        <v>928571.4457683088</v>
       </c>
     </row>
   </sheetData>
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1636.834627374886</v>
+        <v>1731.801024673161</v>
       </c>
       <c r="AB2" t="n">
-        <v>2239.589349221608</v>
+        <v>2369.526563626869</v>
       </c>
       <c r="AC2" t="n">
-        <v>2025.846085015291</v>
+        <v>2143.382274045739</v>
       </c>
       <c r="AD2" t="n">
-        <v>1636834.627374886</v>
+        <v>1731801.024673162</v>
       </c>
       <c r="AE2" t="n">
-        <v>2239589.349221608</v>
+        <v>2369526.563626869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.063225304212003e-06</v>
+        <v>1.936965598552658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.04383680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2025846.085015291</v>
+        <v>2143382.274045739</v>
       </c>
     </row>
     <row r="3">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1091.964215011826</v>
+        <v>1177.348551168007</v>
       </c>
       <c r="AB3" t="n">
-        <v>1494.073613040393</v>
+        <v>1610.900228660337</v>
       </c>
       <c r="AC3" t="n">
-        <v>1351.481324357303</v>
+        <v>1457.158171749664</v>
       </c>
       <c r="AD3" t="n">
-        <v>1091964.215011826</v>
+        <v>1177348.551168007</v>
       </c>
       <c r="AE3" t="n">
-        <v>1494073.613040393</v>
+        <v>1610900.228660337</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.346662693785199e-06</v>
+        <v>2.453326966902276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.61675347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1351481.324357303</v>
+        <v>1457158.171749664</v>
       </c>
     </row>
     <row r="4">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>959.2183158503624</v>
+        <v>1035.02076988155</v>
       </c>
       <c r="AB4" t="n">
-        <v>1312.444817471927</v>
+        <v>1416.161079245649</v>
       </c>
       <c r="AC4" t="n">
-        <v>1187.186926120276</v>
+        <v>1281.004653437002</v>
       </c>
       <c r="AD4" t="n">
-        <v>959218.3158503624</v>
+        <v>1035020.76988155</v>
       </c>
       <c r="AE4" t="n">
-        <v>1312444.817471927</v>
+        <v>1416161.07924565</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445850314290624e-06</v>
+        <v>2.634025270413492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.47526041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1187186.926120276</v>
+        <v>1281004.653437002</v>
       </c>
     </row>
     <row r="5">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>885.5343792290819</v>
+        <v>961.4220846062901</v>
       </c>
       <c r="AB5" t="n">
-        <v>1211.62720468083</v>
+        <v>1315.460111107202</v>
       </c>
       <c r="AC5" t="n">
-        <v>1095.991204795553</v>
+        <v>1189.914444362992</v>
       </c>
       <c r="AD5" t="n">
-        <v>885534.3792290819</v>
+        <v>961422.0846062901</v>
       </c>
       <c r="AE5" t="n">
-        <v>1211627.20468083</v>
+        <v>1315460.111107202</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.498021765408863e-06</v>
+        <v>2.729070324027499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.93706597222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1095991.204795553</v>
+        <v>1189914.444362992</v>
       </c>
     </row>
     <row r="6">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>840.6447610259727</v>
+        <v>916.5324664031807</v>
       </c>
       <c r="AB6" t="n">
-        <v>1150.20724866515</v>
+        <v>1254.040155091522</v>
       </c>
       <c r="AC6" t="n">
-        <v>1040.43308317856</v>
+        <v>1134.356322745999</v>
       </c>
       <c r="AD6" t="n">
-        <v>840644.7610259727</v>
+        <v>916532.4664031807</v>
       </c>
       <c r="AE6" t="n">
-        <v>1150207.24866515</v>
+        <v>1254040.155091522</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.529572089602896e-06</v>
+        <v>2.78654816277431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.62890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1040433.08317856</v>
+        <v>1134356.322745999</v>
       </c>
     </row>
     <row r="7">
@@ -11975,28 +11975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>807.589850003929</v>
+        <v>873.9810141107156</v>
       </c>
       <c r="AB7" t="n">
-        <v>1104.980061125036</v>
+        <v>1195.819380827385</v>
       </c>
       <c r="AC7" t="n">
-        <v>999.5223149405175</v>
+        <v>1081.692057464261</v>
       </c>
       <c r="AD7" t="n">
-        <v>807589.850003929</v>
+        <v>873981.0141107156</v>
       </c>
       <c r="AE7" t="n">
-        <v>1104980.061125036</v>
+        <v>1195819.380827385</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.548543526373165e-06</v>
+        <v>2.821110000452131e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.44878472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>999522.3149405175</v>
+        <v>1081692.057464261</v>
       </c>
     </row>
     <row r="8">
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>778.1539578990343</v>
+        <v>844.5451220058209</v>
       </c>
       <c r="AB8" t="n">
-        <v>1064.704574927211</v>
+        <v>1155.54389462956</v>
       </c>
       <c r="AC8" t="n">
-        <v>963.0906646184135</v>
+        <v>1045.260407142157</v>
       </c>
       <c r="AD8" t="n">
-        <v>778153.9578990343</v>
+        <v>844545.1220058209</v>
       </c>
       <c r="AE8" t="n">
-        <v>1064704.574927211</v>
+        <v>1155543.89462956</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.562772103950866e-06</v>
+        <v>2.847031378710496e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.31857638888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>963090.6646184134</v>
+        <v>1045260.407142157</v>
       </c>
     </row>
     <row r="9">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>775.4719055817123</v>
+        <v>841.8630696884991</v>
       </c>
       <c r="AB9" t="n">
-        <v>1061.034872622854</v>
+        <v>1151.874192325203</v>
       </c>
       <c r="AC9" t="n">
-        <v>959.7711935515246</v>
+        <v>1041.940936075268</v>
       </c>
       <c r="AD9" t="n">
-        <v>775471.9055817124</v>
+        <v>841863.0696884991</v>
       </c>
       <c r="AE9" t="n">
-        <v>1061034.872622854</v>
+        <v>1151874.192325203</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.565040427912528e-06</v>
+        <v>2.851163772345888e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>959771.1935515245</v>
+        <v>1041940.936075268</v>
       </c>
     </row>
     <row r="10">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>779.6656477733649</v>
+        <v>846.0568118801514</v>
       </c>
       <c r="AB10" t="n">
-        <v>1066.772935704321</v>
+        <v>1157.61225540667</v>
       </c>
       <c r="AC10" t="n">
-        <v>964.9616239459182</v>
+        <v>1047.131366469662</v>
       </c>
       <c r="AD10" t="n">
-        <v>779665.6477733649</v>
+        <v>846056.8118801514</v>
       </c>
       <c r="AE10" t="n">
-        <v>1066772.935704321</v>
+        <v>1157612.25540667</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.56524663918177e-06</v>
+        <v>2.85153944449456e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.29470486111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>964961.6239459182</v>
+        <v>1047131.366469661</v>
       </c>
     </row>
   </sheetData>
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.3270041196732</v>
+        <v>955.3802616226868</v>
       </c>
       <c r="AB2" t="n">
-        <v>1199.029267855416</v>
+        <v>1307.193422354619</v>
       </c>
       <c r="AC2" t="n">
-        <v>1084.595597379441</v>
+        <v>1182.436716782584</v>
       </c>
       <c r="AD2" t="n">
-        <v>876327.0041196733</v>
+        <v>955380.2616226869</v>
       </c>
       <c r="AE2" t="n">
-        <v>1199029.267855416</v>
+        <v>1307193.422354619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.405221683244231e-06</v>
+        <v>2.753781736075173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.28732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1084595.597379441</v>
+        <v>1182436.716782584</v>
       </c>
     </row>
     <row r="3">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.9557453510531</v>
+        <v>732.5743846290752</v>
       </c>
       <c r="AB3" t="n">
-        <v>918.0312512676995</v>
+        <v>1002.340591950398</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.4156371116629</v>
+        <v>906.6786126485074</v>
       </c>
       <c r="AD3" t="n">
-        <v>670955.7453510531</v>
+        <v>732574.3846290752</v>
       </c>
       <c r="AE3" t="n">
-        <v>918031.2512676995</v>
+        <v>1002340.591950398</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.608941889035573e-06</v>
+        <v>3.153007700680622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.09765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>830415.6371116629</v>
+        <v>906678.6126485073</v>
       </c>
     </row>
     <row r="4">
@@ -12802,28 +12802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>615.5198231180304</v>
+        <v>685.8556819999975</v>
       </c>
       <c r="AB4" t="n">
-        <v>842.1813768081952</v>
+        <v>938.4180019295975</v>
       </c>
       <c r="AC4" t="n">
-        <v>761.8047682146065</v>
+        <v>848.8567049033736</v>
       </c>
       <c r="AD4" t="n">
-        <v>615519.8231180304</v>
+        <v>685855.6819999975</v>
       </c>
       <c r="AE4" t="n">
-        <v>842181.3768081951</v>
+        <v>938418.0019295975</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.654834902428128e-06</v>
+        <v>3.242943220179653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67881944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>761804.7682146064</v>
+        <v>848856.7049033736</v>
       </c>
     </row>
     <row r="5">
@@ -12908,28 +12908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>620.6732087347615</v>
+        <v>691.0090676167283</v>
       </c>
       <c r="AB5" t="n">
-        <v>849.2324663603343</v>
+        <v>945.4690914817365</v>
       </c>
       <c r="AC5" t="n">
-        <v>768.1829116761559</v>
+        <v>855.234848364923</v>
       </c>
       <c r="AD5" t="n">
-        <v>620673.2087347615</v>
+        <v>691009.0676167284</v>
       </c>
       <c r="AE5" t="n">
-        <v>849232.4663603343</v>
+        <v>945469.0914817365</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.65505877078614e-06</v>
+        <v>3.243381930030867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.67664930555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>768182.9116761559</v>
+        <v>855234.848364923</v>
       </c>
     </row>
   </sheetData>
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3171.981011260161</v>
+        <v>3324.445926901259</v>
       </c>
       <c r="AB2" t="n">
-        <v>4340.044357532294</v>
+        <v>4548.653581389818</v>
       </c>
       <c r="AC2" t="n">
-        <v>3925.836615339761</v>
+        <v>4114.5364676572</v>
       </c>
       <c r="AD2" t="n">
-        <v>3171981.011260161</v>
+        <v>3324445.926901259</v>
       </c>
       <c r="AE2" t="n">
-        <v>4340044.357532294</v>
+        <v>4548653.581389818</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.476551076914376e-07</v>
+        <v>1.286326562316984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.78428819444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3925836.615339761</v>
+        <v>4114536.4676572</v>
       </c>
     </row>
     <row r="3">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1686.719975628875</v>
+        <v>1788.391699674464</v>
       </c>
       <c r="AB3" t="n">
-        <v>2307.844683488958</v>
+        <v>2446.95642176803</v>
       </c>
       <c r="AC3" t="n">
-        <v>2087.587225977127</v>
+        <v>2213.422335199397</v>
       </c>
       <c r="AD3" t="n">
-        <v>1686719.975628875</v>
+        <v>1788391.699674464</v>
       </c>
       <c r="AE3" t="n">
-        <v>2307844.683488958</v>
+        <v>2446956.421768031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.099036736207027e-06</v>
+        <v>1.890872050764769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.90190972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2087587.225977127</v>
+        <v>2213422.335199397</v>
       </c>
     </row>
     <row r="4">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1407.834245651306</v>
+        <v>1499.330263206878</v>
       </c>
       <c r="AB4" t="n">
-        <v>1926.260924163583</v>
+        <v>2051.449811902529</v>
       </c>
       <c r="AC4" t="n">
-        <v>1742.421285085596</v>
+        <v>1855.662321082445</v>
       </c>
       <c r="AD4" t="n">
-        <v>1407834.245651306</v>
+        <v>1499330.263206878</v>
       </c>
       <c r="AE4" t="n">
-        <v>1926260.924163583</v>
+        <v>2051449.811902529</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.229500685993665e-06</v>
+        <v>2.115332824601416e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.89453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1742421.285085596</v>
+        <v>1855662.321082445</v>
       </c>
     </row>
     <row r="5">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1283.780606963061</v>
+        <v>1375.191283664062</v>
       </c>
       <c r="AB5" t="n">
-        <v>1756.525262850043</v>
+        <v>1881.597383466792</v>
       </c>
       <c r="AC5" t="n">
-        <v>1588.884957062324</v>
+        <v>1702.020370027234</v>
       </c>
       <c r="AD5" t="n">
-        <v>1283780.606963061</v>
+        <v>1375191.283664062</v>
       </c>
       <c r="AE5" t="n">
-        <v>1756525.262850043</v>
+        <v>1881597.383466792</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.298609249270226e-06</v>
+        <v>2.234232808981503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.99609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1588884.957062324</v>
+        <v>1702020.370027234</v>
       </c>
     </row>
     <row r="6">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1217.370836821929</v>
+        <v>1298.605896541465</v>
       </c>
       <c r="AB6" t="n">
-        <v>1665.660485550662</v>
+        <v>1776.809878096831</v>
       </c>
       <c r="AC6" t="n">
-        <v>1506.69218657888</v>
+        <v>1607.233637099595</v>
       </c>
       <c r="AD6" t="n">
-        <v>1217370.836821929</v>
+        <v>1298605.896541465</v>
       </c>
       <c r="AE6" t="n">
-        <v>1665660.485550662</v>
+        <v>1776809.878096831</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34168245352847e-06</v>
+        <v>2.308339447445547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.48177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1506692.18657888</v>
+        <v>1607233.637099596</v>
       </c>
     </row>
     <row r="7">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1172.65533591589</v>
+        <v>1243.885370854553</v>
       </c>
       <c r="AB7" t="n">
-        <v>1604.478764502346</v>
+        <v>1701.938840752784</v>
       </c>
       <c r="AC7" t="n">
-        <v>1451.349563118331</v>
+        <v>1539.508186477503</v>
       </c>
       <c r="AD7" t="n">
-        <v>1172655.33591589</v>
+        <v>1243885.370854554</v>
       </c>
       <c r="AE7" t="n">
-        <v>1604478.764502346</v>
+        <v>1701938.840752784</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.370685077729021e-06</v>
+        <v>2.358237917344669e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.15407986111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1451349.563118331</v>
+        <v>1539508.186477503</v>
       </c>
     </row>
     <row r="8">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1126.045042460708</v>
+        <v>1207.365353526265</v>
       </c>
       <c r="AB8" t="n">
-        <v>1540.704504695946</v>
+        <v>1651.970541894765</v>
       </c>
       <c r="AC8" t="n">
-        <v>1393.661829160117</v>
+        <v>1494.308791931545</v>
       </c>
       <c r="AD8" t="n">
-        <v>1126045.042460708</v>
+        <v>1207365.353526265</v>
       </c>
       <c r="AE8" t="n">
-        <v>1540704.504695946</v>
+        <v>1651970.541894765</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.393178862174993e-06</v>
+        <v>2.396938050764781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.91102430555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1393661.829160117</v>
+        <v>1494308.791931545</v>
       </c>
     </row>
     <row r="9">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1115.802870966415</v>
+        <v>1197.123182031972</v>
       </c>
       <c r="AB9" t="n">
-        <v>1526.690713804737</v>
+        <v>1637.956751003556</v>
       </c>
       <c r="AC9" t="n">
-        <v>1380.985494803086</v>
+        <v>1481.632457574515</v>
       </c>
       <c r="AD9" t="n">
-        <v>1115802.870966414</v>
+        <v>1197123.182031972</v>
       </c>
       <c r="AE9" t="n">
-        <v>1526690.713804737</v>
+        <v>1637956.751003556</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397294746137448e-06</v>
+        <v>2.404019351773567e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.86545138888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1380985.494803086</v>
+        <v>1481632.457574515</v>
       </c>
     </row>
     <row r="10">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1080.564607206644</v>
+        <v>1161.884918272201</v>
       </c>
       <c r="AB10" t="n">
-        <v>1478.47616672614</v>
+        <v>1589.742203924959</v>
       </c>
       <c r="AC10" t="n">
-        <v>1337.372476428129</v>
+        <v>1438.019439199557</v>
       </c>
       <c r="AD10" t="n">
-        <v>1080564.607206644</v>
+        <v>1161884.918272201</v>
       </c>
       <c r="AE10" t="n">
-        <v>1478476.16672614</v>
+        <v>1589742.203924959</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.418927066498255e-06</v>
+        <v>2.441237352424398e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.63975694444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1337372.476428129</v>
+        <v>1438019.439199557</v>
       </c>
     </row>
     <row r="11">
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1057.124837914866</v>
+        <v>1138.445148980423</v>
       </c>
       <c r="AB11" t="n">
-        <v>1446.40484029149</v>
+        <v>1557.67087749031</v>
       </c>
       <c r="AC11" t="n">
-        <v>1308.361992376013</v>
+        <v>1409.008955147441</v>
       </c>
       <c r="AD11" t="n">
-        <v>1057124.837914865</v>
+        <v>1138445.148980423</v>
       </c>
       <c r="AE11" t="n">
-        <v>1446404.84029149</v>
+        <v>1557670.87749031</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.430508972532139e-06</v>
+        <v>2.461163804100285e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.52039930555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1308361.992376013</v>
+        <v>1409008.955147441</v>
       </c>
     </row>
     <row r="12">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1041.496044323827</v>
+        <v>1112.640738407919</v>
       </c>
       <c r="AB12" t="n">
-        <v>1425.020835406519</v>
+        <v>1522.36414453476</v>
       </c>
       <c r="AC12" t="n">
-        <v>1289.018846904624</v>
+        <v>1377.071847231858</v>
       </c>
       <c r="AD12" t="n">
-        <v>1041496.044323827</v>
+        <v>1112640.738407919</v>
       </c>
       <c r="AE12" t="n">
-        <v>1425020.835406519</v>
+        <v>1522364.14453476</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.437592121676828e-06</v>
+        <v>2.47335022909215e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.44878472222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1289018.846904624</v>
+        <v>1377071.847231858</v>
       </c>
     </row>
     <row r="13">
@@ -14371,28 +14371,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1022.360220510137</v>
+        <v>1093.50491459423</v>
       </c>
       <c r="AB13" t="n">
-        <v>1398.838357051665</v>
+        <v>1496.181666179905</v>
       </c>
       <c r="AC13" t="n">
-        <v>1265.335187536618</v>
+        <v>1353.388187863852</v>
       </c>
       <c r="AD13" t="n">
-        <v>1022360.220510137</v>
+        <v>1093504.91459423</v>
       </c>
       <c r="AE13" t="n">
-        <v>1398838.357051665</v>
+        <v>1496181.666179905</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.445536734906682e-06</v>
+        <v>2.487018786853296e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.37065972222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1265335.187536618</v>
+        <v>1353388.187863852</v>
       </c>
     </row>
     <row r="14">
@@ -14477,28 +14477,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1003.04007427738</v>
+        <v>1074.184768361472</v>
       </c>
       <c r="AB14" t="n">
-        <v>1372.403680631309</v>
+        <v>1469.74698975955</v>
       </c>
       <c r="AC14" t="n">
-        <v>1241.42339953252</v>
+        <v>1329.476399859753</v>
       </c>
       <c r="AD14" t="n">
-        <v>1003040.07427738</v>
+        <v>1074184.768361472</v>
       </c>
       <c r="AE14" t="n">
-        <v>1372403.680631309</v>
+        <v>1469746.98975955</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.451949856429576e-06</v>
+        <v>2.498052441913498e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>1241423.39953252</v>
+        <v>1329476.399859753</v>
       </c>
     </row>
     <row r="15">
@@ -14583,28 +14583,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>989.0403244396207</v>
+        <v>1060.185018523713</v>
       </c>
       <c r="AB15" t="n">
-        <v>1353.248605277915</v>
+        <v>1450.591914406155</v>
       </c>
       <c r="AC15" t="n">
-        <v>1224.096457686536</v>
+        <v>1312.149458013769</v>
       </c>
       <c r="AD15" t="n">
-        <v>989040.3244396207</v>
+        <v>1060185.018523713</v>
       </c>
       <c r="AE15" t="n">
-        <v>1353248.605277915</v>
+        <v>1450591.914406155</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.45510855807518e-06</v>
+        <v>2.503486928734194e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.27517361111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1224096.457686536</v>
+        <v>1312149.458013769</v>
       </c>
     </row>
     <row r="16">
@@ -14689,28 +14689,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>971.9824720571111</v>
+        <v>1043.127166141203</v>
       </c>
       <c r="AB16" t="n">
-        <v>1329.909299108829</v>
+        <v>1427.25260823707</v>
       </c>
       <c r="AC16" t="n">
-        <v>1202.984622141307</v>
+        <v>1291.03762246854</v>
       </c>
       <c r="AD16" t="n">
-        <v>971982.4720571111</v>
+        <v>1043127.166141203</v>
       </c>
       <c r="AE16" t="n">
-        <v>1329909.299108829</v>
+        <v>1427252.60823707</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.46142596136639e-06</v>
+        <v>2.514355902375587e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.21440972222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1202984.622141307</v>
+        <v>1291037.62246854</v>
       </c>
     </row>
     <row r="17">
@@ -14795,28 +14795,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>962.8004250232767</v>
+        <v>1033.945119107369</v>
       </c>
       <c r="AB17" t="n">
-        <v>1317.346017273811</v>
+        <v>1414.689326402052</v>
       </c>
       <c r="AC17" t="n">
-        <v>1191.620362291945</v>
+        <v>1279.673362619179</v>
       </c>
       <c r="AD17" t="n">
-        <v>962800.4250232767</v>
+        <v>1033945.119107369</v>
       </c>
       <c r="AE17" t="n">
-        <v>1317346.017273811</v>
+        <v>1414689.326402052</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.461713116061444e-06</v>
+        <v>2.514849946632014e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.21006944444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>1191620.362291945</v>
+        <v>1279673.362619179</v>
       </c>
     </row>
     <row r="18">
@@ -14901,28 +14901,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>961.9687138761852</v>
+        <v>1033.113407960277</v>
       </c>
       <c r="AB18" t="n">
-        <v>1316.208033389855</v>
+        <v>1413.551342518095</v>
       </c>
       <c r="AC18" t="n">
-        <v>1190.590985992703</v>
+        <v>1278.643986319937</v>
       </c>
       <c r="AD18" t="n">
-        <v>961968.7138761852</v>
+        <v>1033113.407960277</v>
       </c>
       <c r="AE18" t="n">
-        <v>1316208.033389855</v>
+        <v>1413551.342518095</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.463531762463459e-06</v>
+        <v>2.517978893589385e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.19270833333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1190590.985992703</v>
+        <v>1278643.986319937</v>
       </c>
     </row>
     <row r="19">
@@ -15007,28 +15007,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>966.1702507052927</v>
+        <v>1037.314944789385</v>
       </c>
       <c r="AB19" t="n">
-        <v>1321.956761438162</v>
+        <v>1419.300070566403</v>
       </c>
       <c r="AC19" t="n">
-        <v>1195.791063504471</v>
+        <v>1283.844063831705</v>
       </c>
       <c r="AD19" t="n">
-        <v>966170.2507052927</v>
+        <v>1037314.944789385</v>
       </c>
       <c r="AE19" t="n">
-        <v>1321956.761438162</v>
+        <v>1419300.070566403</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.463148889536719e-06</v>
+        <v>2.517320167914149e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.19704861111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1195791.063504471</v>
+        <v>1283844.063831705</v>
       </c>
     </row>
   </sheetData>
@@ -15304,28 +15304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>728.041899025115</v>
+        <v>805.5138375168351</v>
       </c>
       <c r="AB2" t="n">
-        <v>996.139045187907</v>
+        <v>1102.139569252987</v>
       </c>
       <c r="AC2" t="n">
-        <v>901.0689328051033</v>
+        <v>996.9529156260817</v>
       </c>
       <c r="AD2" t="n">
-        <v>728041.899025115</v>
+        <v>805513.8375168351</v>
       </c>
       <c r="AE2" t="n">
-        <v>996139.0451879069</v>
+        <v>1102139.569252987</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.503372605320375e-06</v>
+        <v>3.013751493160883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>901068.9328051032</v>
+        <v>996952.9156260816</v>
       </c>
     </row>
     <row r="3">
@@ -15410,28 +15410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.8079507188299</v>
+        <v>644.6624137276285</v>
       </c>
       <c r="AB3" t="n">
-        <v>787.8458410274461</v>
+        <v>882.0555549606064</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.6549397083687</v>
+        <v>797.8734107679119</v>
       </c>
       <c r="AD3" t="n">
-        <v>575807.95071883</v>
+        <v>644662.4137276285</v>
       </c>
       <c r="AE3" t="n">
-        <v>787845.8410274461</v>
+        <v>882055.5549606064</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.668326624800818e-06</v>
+        <v>3.344428279975244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.90017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>712654.9397083687</v>
+        <v>797873.4107679119</v>
       </c>
     </row>
     <row r="4">
@@ -15516,28 +15516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>580.0457227242855</v>
+        <v>648.9001857330841</v>
       </c>
       <c r="AB4" t="n">
-        <v>793.6441476426166</v>
+        <v>887.8538615757765</v>
       </c>
       <c r="AC4" t="n">
-        <v>717.8998640781616</v>
+        <v>803.1183351377048</v>
       </c>
       <c r="AD4" t="n">
-        <v>580045.7227242854</v>
+        <v>648900.1857330841</v>
       </c>
       <c r="AE4" t="n">
-        <v>793644.1476426166</v>
+        <v>887853.8615757765</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.669701241629822e-06</v>
+        <v>3.347183919865364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.88932291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>717899.8640781617</v>
+        <v>803118.3351377047</v>
       </c>
     </row>
   </sheetData>
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2192.834787630127</v>
+        <v>2310.605808561906</v>
       </c>
       <c r="AB2" t="n">
-        <v>3000.333297478901</v>
+        <v>3161.472804008521</v>
       </c>
       <c r="AC2" t="n">
-        <v>2713.985698561632</v>
+        <v>2859.746276748777</v>
       </c>
       <c r="AD2" t="n">
-        <v>2192834.787630127</v>
+        <v>2310605.808561906</v>
       </c>
       <c r="AE2" t="n">
-        <v>3000333.297478901</v>
+        <v>3161472.804008521</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.136321621699761e-07</v>
+        <v>1.618110448376622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.63715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2713985.698561633</v>
+        <v>2859746.276748777</v>
       </c>
     </row>
     <row r="3">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1338.022070860353</v>
+        <v>1426.350336559187</v>
       </c>
       <c r="AB3" t="n">
-        <v>1830.740826718817</v>
+        <v>1951.595456616025</v>
       </c>
       <c r="AC3" t="n">
-        <v>1656.01749167766</v>
+        <v>1765.337925318018</v>
       </c>
       <c r="AD3" t="n">
-        <v>1338022.070860353</v>
+        <v>1426350.336559187</v>
       </c>
       <c r="AE3" t="n">
-        <v>1830740.826718817</v>
+        <v>1951595.456616025</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.230681728521522e-06</v>
+        <v>2.179628789355591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.54774305555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1656017.49167766</v>
+        <v>1765337.925318018</v>
       </c>
     </row>
     <row r="4">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1155.777831948837</v>
+        <v>1234.206594557336</v>
       </c>
       <c r="AB4" t="n">
-        <v>1581.386218991699</v>
+        <v>1688.695912025457</v>
       </c>
       <c r="AC4" t="n">
-        <v>1430.460937740629</v>
+        <v>1527.529144281345</v>
       </c>
       <c r="AD4" t="n">
-        <v>1155777.831948837</v>
+        <v>1234206.594557336</v>
       </c>
       <c r="AE4" t="n">
-        <v>1581386.218991699</v>
+        <v>1688695.912025457</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.345122093023807e-06</v>
+        <v>2.382311178597843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1430460.937740629</v>
+        <v>1527529.144281345</v>
       </c>
     </row>
     <row r="5">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1066.570026986303</v>
+        <v>1144.913448740231</v>
       </c>
       <c r="AB5" t="n">
-        <v>1459.328164671364</v>
+        <v>1566.521090582924</v>
       </c>
       <c r="AC5" t="n">
-        <v>1320.051932815072</v>
+        <v>1417.014516323849</v>
       </c>
       <c r="AD5" t="n">
-        <v>1066570.026986303</v>
+        <v>1144913.448740231</v>
       </c>
       <c r="AE5" t="n">
-        <v>1459328.164671364</v>
+        <v>1566521.090582924</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.40323789551888e-06</v>
+        <v>2.485238583221734e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1320051.932815072</v>
+        <v>1417014.516323849</v>
       </c>
     </row>
     <row r="6">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1005.213871263424</v>
+        <v>1083.642544363372</v>
       </c>
       <c r="AB6" t="n">
-        <v>1375.377965568769</v>
+        <v>1482.687536132979</v>
       </c>
       <c r="AC6" t="n">
-        <v>1244.113822889984</v>
+        <v>1341.181918649473</v>
       </c>
       <c r="AD6" t="n">
-        <v>1005213.871263424</v>
+        <v>1083642.544363372</v>
       </c>
       <c r="AE6" t="n">
-        <v>1375377.965568769</v>
+        <v>1482687.536132979</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.440455892322231e-06</v>
+        <v>2.551154421114432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.99131944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1244113.822889984</v>
+        <v>1341181.918649473</v>
       </c>
     </row>
     <row r="7">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>966.8161720437989</v>
+        <v>1045.244845143747</v>
       </c>
       <c r="AB7" t="n">
-        <v>1322.840539509545</v>
+        <v>1430.150110073754</v>
       </c>
       <c r="AC7" t="n">
-        <v>1196.590495037111</v>
+        <v>1293.6585907966</v>
       </c>
       <c r="AD7" t="n">
-        <v>966816.172043799</v>
+        <v>1045244.845143747</v>
       </c>
       <c r="AE7" t="n">
-        <v>1322840.539509545</v>
+        <v>1430150.110073754</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466229852675355e-06</v>
+        <v>2.596802020082905e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.72873263888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1196590.495037111</v>
+        <v>1293658.590796601</v>
       </c>
     </row>
     <row r="8">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>942.3681195126661</v>
+        <v>1020.796792612614</v>
       </c>
       <c r="AB8" t="n">
-        <v>1289.389635464493</v>
+        <v>1396.699206028702</v>
       </c>
       <c r="AC8" t="n">
-        <v>1166.33209832548</v>
+        <v>1263.40019408497</v>
       </c>
       <c r="AD8" t="n">
-        <v>942368.1195126661</v>
+        <v>1020796.792612614</v>
       </c>
       <c r="AE8" t="n">
-        <v>1289389.635464493</v>
+        <v>1396699.206028702</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.479067076171698e-06</v>
+        <v>2.619537696789209e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.60069444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1166332.09832548</v>
+        <v>1263400.19408497</v>
       </c>
     </row>
     <row r="9">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>913.0261067121567</v>
+        <v>981.6406175763409</v>
       </c>
       <c r="AB9" t="n">
-        <v>1249.242599072591</v>
+        <v>1343.123999895548</v>
       </c>
       <c r="AC9" t="n">
-        <v>1130.016638740102</v>
+        <v>1214.938130431889</v>
       </c>
       <c r="AD9" t="n">
-        <v>913026.1067121567</v>
+        <v>981640.6175763409</v>
       </c>
       <c r="AE9" t="n">
-        <v>1249242.599072591</v>
+        <v>1343123.999895548</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.495188240562454e-06</v>
+        <v>2.648089476838987e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1130016.638740102</v>
+        <v>1214938.130431889</v>
       </c>
     </row>
     <row r="10">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>886.8755771676458</v>
+        <v>955.4900880318299</v>
       </c>
       <c r="AB10" t="n">
-        <v>1213.462290869851</v>
+        <v>1307.343691692807</v>
       </c>
       <c r="AC10" t="n">
-        <v>1097.651152934253</v>
+        <v>1182.57264462604</v>
       </c>
       <c r="AD10" t="n">
-        <v>886875.5771676458</v>
+        <v>955490.0880318299</v>
       </c>
       <c r="AE10" t="n">
-        <v>1213462.290869851</v>
+        <v>1307343.691692807</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.506433250291809e-06</v>
+        <v>2.668005224651487e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1097651.152934253</v>
+        <v>1182572.64462604</v>
       </c>
     </row>
     <row r="11">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>863.5028478469526</v>
+        <v>932.1173587111367</v>
       </c>
       <c r="AB11" t="n">
-        <v>1181.482691481234</v>
+        <v>1275.364092304191</v>
       </c>
       <c r="AC11" t="n">
-        <v>1068.723641627636</v>
+        <v>1153.645133319424</v>
       </c>
       <c r="AD11" t="n">
-        <v>863502.8478469526</v>
+        <v>932117.3587111367</v>
       </c>
       <c r="AE11" t="n">
-        <v>1181482.691481234</v>
+        <v>1275364.092304191</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.515090912649808e-06</v>
+        <v>2.683338588011553e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.25347222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1068723.641627637</v>
+        <v>1153645.133319424</v>
       </c>
     </row>
     <row r="12">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>854.8242746388783</v>
+        <v>923.4387855030623</v>
       </c>
       <c r="AB12" t="n">
-        <v>1169.608284746319</v>
+        <v>1263.489685569275</v>
       </c>
       <c r="AC12" t="n">
-        <v>1057.982511605667</v>
+        <v>1142.904003297454</v>
       </c>
       <c r="AD12" t="n">
-        <v>854824.2746388783</v>
+        <v>923438.7855030623</v>
       </c>
       <c r="AE12" t="n">
-        <v>1169608.284746319</v>
+        <v>1263489.685569275</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.519170960427716e-06</v>
+        <v>2.690564655801928e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.21657986111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1057982.511605667</v>
+        <v>1142904.003297454</v>
       </c>
     </row>
     <row r="13">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>858.2215416799171</v>
+        <v>926.8360525441012</v>
       </c>
       <c r="AB13" t="n">
-        <v>1174.256575388712</v>
+        <v>1268.137976211669</v>
       </c>
       <c r="AC13" t="n">
-        <v>1062.187175913067</v>
+        <v>1147.108667604855</v>
       </c>
       <c r="AD13" t="n">
-        <v>858221.5416799171</v>
+        <v>926836.0525441013</v>
       </c>
       <c r="AE13" t="n">
-        <v>1174256.575388712</v>
+        <v>1268137.976211669</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.519071447067279e-06</v>
+        <v>2.690388410246066e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.21657986111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1062187.175913067</v>
+        <v>1147108.667604855</v>
       </c>
     </row>
   </sheetData>
@@ -17276,28 +17276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2645.589106518474</v>
+        <v>2775.617598538207</v>
       </c>
       <c r="AB2" t="n">
-        <v>3619.811730692821</v>
+        <v>3797.72244992644</v>
       </c>
       <c r="AC2" t="n">
-        <v>3274.341979553034</v>
+        <v>3435.273149442252</v>
       </c>
       <c r="AD2" t="n">
-        <v>2645589.106518474</v>
+        <v>2775617.598538207</v>
       </c>
       <c r="AE2" t="n">
-        <v>3619811.730692821</v>
+        <v>3797722.44992644</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.262426867036126e-07</v>
+        <v>1.440895098757091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.60980902777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3274341.979553034</v>
+        <v>3435273.149442252</v>
       </c>
     </row>
     <row r="3">
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1513.008018923887</v>
+        <v>1602.942492822298</v>
       </c>
       <c r="AB3" t="n">
-        <v>2070.164320694536</v>
+        <v>2193.216635511308</v>
       </c>
       <c r="AC3" t="n">
-        <v>1872.590743421321</v>
+        <v>1983.899118016988</v>
       </c>
       <c r="AD3" t="n">
-        <v>1513008.018923888</v>
+        <v>1602942.492822298</v>
       </c>
       <c r="AE3" t="n">
-        <v>2070164.320694536</v>
+        <v>2193216.635511308</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162238945658138e-06</v>
+        <v>2.026843235447784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.20529513888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1872590.743421321</v>
+        <v>1983899.118016989</v>
       </c>
     </row>
     <row r="4">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1280.321958212138</v>
+        <v>1360.254240416722</v>
       </c>
       <c r="AB4" t="n">
-        <v>1751.792987044216</v>
+        <v>1861.159861919941</v>
       </c>
       <c r="AC4" t="n">
-        <v>1584.604323017614</v>
+        <v>1683.533376852573</v>
       </c>
       <c r="AD4" t="n">
-        <v>1280321.958212138</v>
+        <v>1360254.240416722</v>
       </c>
       <c r="AE4" t="n">
-        <v>1751792.987044216</v>
+        <v>1861159.861919941</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28509306239717e-06</v>
+        <v>2.241090087516929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.46484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1584604.323017614</v>
+        <v>1683533.376852573</v>
       </c>
     </row>
     <row r="5">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1172.277218905158</v>
+        <v>1252.294752455763</v>
       </c>
       <c r="AB5" t="n">
-        <v>1603.961408126917</v>
+        <v>1713.444927655292</v>
       </c>
       <c r="AC5" t="n">
-        <v>1450.881582509258</v>
+        <v>1549.91614859493</v>
       </c>
       <c r="AD5" t="n">
-        <v>1172277.218905158</v>
+        <v>1252294.752455763</v>
       </c>
       <c r="AE5" t="n">
-        <v>1603961.408126917</v>
+        <v>1713444.927655292</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350907767793079e-06</v>
+        <v>2.355865186839685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1450881.582509258</v>
+        <v>1549916.14859493</v>
       </c>
     </row>
     <row r="6">
@@ -17700,28 +17700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1116.410682120562</v>
+        <v>1196.257623470575</v>
       </c>
       <c r="AB6" t="n">
-        <v>1527.522347840577</v>
+        <v>1636.772455594104</v>
       </c>
       <c r="AC6" t="n">
-        <v>1381.737758853752</v>
+        <v>1480.561189656772</v>
       </c>
       <c r="AD6" t="n">
-        <v>1116410.682120562</v>
+        <v>1196257.623470575</v>
       </c>
       <c r="AE6" t="n">
-        <v>1527522.347840577</v>
+        <v>1636772.455594104</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38903154528908e-06</v>
+        <v>2.422349725854793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.23220486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1381737.758853752</v>
+        <v>1480561.189656772</v>
       </c>
     </row>
     <row r="7">
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1066.027896871451</v>
+        <v>1145.960089567485</v>
       </c>
       <c r="AB7" t="n">
-        <v>1458.586398331131</v>
+        <v>1567.953150737308</v>
       </c>
       <c r="AC7" t="n">
-        <v>1319.380959613275</v>
+        <v>1418.309902667007</v>
       </c>
       <c r="AD7" t="n">
-        <v>1066027.896871451</v>
+        <v>1145960.089567485</v>
       </c>
       <c r="AE7" t="n">
-        <v>1458586.398331131</v>
+        <v>1567953.150737308</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416039950318216e-06</v>
+        <v>2.469450025873168e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.94357638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1319380.959613275</v>
+        <v>1418309.902667007</v>
       </c>
     </row>
     <row r="8">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1021.715465480547</v>
+        <v>1101.647658176581</v>
       </c>
       <c r="AB8" t="n">
-        <v>1397.956174775595</v>
+        <v>1507.322927181772</v>
       </c>
       <c r="AC8" t="n">
-        <v>1264.537199498825</v>
+        <v>1363.466142552558</v>
       </c>
       <c r="AD8" t="n">
-        <v>1021715.465480547</v>
+        <v>1101647.658176581</v>
       </c>
       <c r="AE8" t="n">
-        <v>1397956.174775595</v>
+        <v>1507322.927181772</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.445485937028683e-06</v>
+        <v>2.52080125549609e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.63975694444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1264537.199498825</v>
+        <v>1363466.142552558</v>
       </c>
     </row>
     <row r="9">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1010.755020888814</v>
+        <v>1090.687213584848</v>
       </c>
       <c r="AB9" t="n">
-        <v>1382.959610944497</v>
+        <v>1492.326363350674</v>
       </c>
       <c r="AC9" t="n">
-        <v>1250.971886671958</v>
+        <v>1349.900829725691</v>
       </c>
       <c r="AD9" t="n">
-        <v>1010755.020888814</v>
+        <v>1090687.213584848</v>
       </c>
       <c r="AE9" t="n">
-        <v>1382959.610944497</v>
+        <v>1492326.363350674</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.448508538313532e-06</v>
+        <v>2.526072408205728e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.60720486111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1250971.886671958</v>
+        <v>1349900.829725691</v>
       </c>
     </row>
     <row r="10">
@@ -18124,28 +18124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>986.2120138407633</v>
+        <v>1056.142104351522</v>
       </c>
       <c r="AB10" t="n">
-        <v>1349.378785940301</v>
+        <v>1445.060220874979</v>
       </c>
       <c r="AC10" t="n">
-        <v>1220.595968475178</v>
+        <v>1307.145701549428</v>
       </c>
       <c r="AD10" t="n">
-        <v>986212.0138407634</v>
+        <v>1056142.104351522</v>
       </c>
       <c r="AE10" t="n">
-        <v>1349378.785940301</v>
+        <v>1445060.220874979</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.461573976125461e-06</v>
+        <v>2.548857390886097e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.47699652777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1220595.968475178</v>
+        <v>1307145.701549428</v>
       </c>
     </row>
     <row r="11">
@@ -18230,28 +18230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>966.6265677229341</v>
+        <v>1036.556658233693</v>
       </c>
       <c r="AB11" t="n">
-        <v>1322.581114512985</v>
+        <v>1418.262549447663</v>
       </c>
       <c r="AC11" t="n">
-        <v>1196.355829198118</v>
+        <v>1282.905562272368</v>
       </c>
       <c r="AD11" t="n">
-        <v>966626.5677229341</v>
+        <v>1036556.658233693</v>
       </c>
       <c r="AE11" t="n">
-        <v>1322581.114512985</v>
+        <v>1418262.549447663</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.470056760376489e-06</v>
+        <v>2.563650625909919e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.39453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1196355.829198118</v>
+        <v>1282905.562272368</v>
       </c>
     </row>
     <row r="12">
@@ -18336,28 +18336,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>944.323968071804</v>
+        <v>1014.254058582563</v>
       </c>
       <c r="AB12" t="n">
-        <v>1292.065713749054</v>
+        <v>1387.747148683732</v>
       </c>
       <c r="AC12" t="n">
-        <v>1168.752775454462</v>
+        <v>1255.302508528712</v>
       </c>
       <c r="AD12" t="n">
-        <v>944323.9680718039</v>
+        <v>1014254.058582563</v>
       </c>
       <c r="AE12" t="n">
-        <v>1292065.713749054</v>
+        <v>1387747.148683732</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.477759518489492e-06</v>
+        <v>2.577083563460286e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.31857638888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1168752.775454462</v>
+        <v>1255302.508528712</v>
       </c>
     </row>
     <row r="13">
@@ -18442,28 +18442,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>925.5177405432803</v>
+        <v>995.4478310540391</v>
       </c>
       <c r="AB13" t="n">
-        <v>1266.334203572325</v>
+        <v>1362.015638507003</v>
       </c>
       <c r="AC13" t="n">
-        <v>1145.477044494599</v>
+        <v>1232.026777568849</v>
       </c>
       <c r="AD13" t="n">
-        <v>925517.7405432803</v>
+        <v>995447.8310540391</v>
       </c>
       <c r="AE13" t="n">
-        <v>1266334.203572325</v>
+        <v>1362015.638507003</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.484194734128203e-06</v>
+        <v>2.588306017616289e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.2578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1145477.044494599</v>
+        <v>1232026.777568849</v>
       </c>
     </row>
     <row r="14">
@@ -18548,28 +18548,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>910.4406990821345</v>
+        <v>980.3707895928934</v>
       </c>
       <c r="AB14" t="n">
-        <v>1245.70513029306</v>
+        <v>1341.386565227739</v>
       </c>
       <c r="AC14" t="n">
-        <v>1126.816781016021</v>
+        <v>1213.366514090271</v>
       </c>
       <c r="AD14" t="n">
-        <v>910440.6990821345</v>
+        <v>980370.7895928934</v>
       </c>
       <c r="AE14" t="n">
-        <v>1245705.13029306</v>
+        <v>1341386.565227739</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.48897239422361e-06</v>
+        <v>2.5966378396412e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.21006944444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1126816.781016021</v>
+        <v>1213366.514090271</v>
       </c>
     </row>
     <row r="15">
@@ -18654,28 +18654,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>909.7240951042883</v>
+        <v>979.6541856150474</v>
       </c>
       <c r="AB15" t="n">
-        <v>1244.724641116235</v>
+        <v>1340.406076050913</v>
       </c>
       <c r="AC15" t="n">
-        <v>1125.929868350106</v>
+        <v>1212.479601424356</v>
       </c>
       <c r="AD15" t="n">
-        <v>909724.0951042883</v>
+        <v>979654.1856150473</v>
       </c>
       <c r="AE15" t="n">
-        <v>1244724.641116235</v>
+        <v>1340406.076050913</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.488874890956356e-06</v>
+        <v>2.596467802457018e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1125929.868350106</v>
+        <v>1212479.601424356</v>
       </c>
     </row>
     <row r="16">
@@ -18760,28 +18760,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>910.3891919651973</v>
+        <v>980.3192824759561</v>
       </c>
       <c r="AB16" t="n">
-        <v>1245.634655983333</v>
+        <v>1341.316090918011</v>
       </c>
       <c r="AC16" t="n">
-        <v>1126.753032675502</v>
+        <v>1213.302765749753</v>
       </c>
       <c r="AD16" t="n">
-        <v>910389.1919651972</v>
+        <v>980319.2824759561</v>
       </c>
       <c r="AE16" t="n">
-        <v>1245634.655983333</v>
+        <v>1341316.090918011</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.491312472637686e-06</v>
+        <v>2.600718732061565e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.18836805555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>1126753.032675503</v>
+        <v>1213302.765749753</v>
       </c>
     </row>
   </sheetData>
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3819.09747178517</v>
+        <v>3974.07360029689</v>
       </c>
       <c r="AB2" t="n">
-        <v>5225.457647586031</v>
+        <v>5437.502823680031</v>
       </c>
       <c r="AC2" t="n">
-        <v>4726.747303676092</v>
+        <v>4918.555185770948</v>
       </c>
       <c r="AD2" t="n">
-        <v>3819097.47178517</v>
+        <v>3974073.60029689</v>
       </c>
       <c r="AE2" t="n">
-        <v>5225457.647586031</v>
+        <v>5437502.823680031</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.745977192205797e-07</v>
+        <v>1.146771412781033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.27777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4726747.303676092</v>
+        <v>4918555.185770947</v>
       </c>
     </row>
     <row r="3">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1882.570459024992</v>
+        <v>1985.944712263485</v>
       </c>
       <c r="AB3" t="n">
-        <v>2575.815955185049</v>
+        <v>2717.257169016141</v>
       </c>
       <c r="AC3" t="n">
-        <v>2329.983695602586</v>
+        <v>2457.925958499629</v>
       </c>
       <c r="AD3" t="n">
-        <v>1882570.459024992</v>
+        <v>1985944.712263485</v>
       </c>
       <c r="AE3" t="n">
-        <v>2575815.955185049</v>
+        <v>2717257.169016141</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039942075528377e-06</v>
+        <v>1.76783260480335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.63975694444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2329983.695602586</v>
+        <v>2457925.958499629</v>
       </c>
     </row>
     <row r="4">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1547.523457310329</v>
+        <v>1640.389693024381</v>
       </c>
       <c r="AB4" t="n">
-        <v>2117.389866208538</v>
+        <v>2244.453546881675</v>
       </c>
       <c r="AC4" t="n">
-        <v>1915.309149152937</v>
+        <v>2030.246050477625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1547523.457310329</v>
+        <v>1640389.693024381</v>
       </c>
       <c r="AE4" t="n">
-        <v>2117389.866208538</v>
+        <v>2244453.546881675</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.178381423320435e-06</v>
+        <v>2.003170320791199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.33072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1915309.149152937</v>
+        <v>2030246.050477625</v>
       </c>
     </row>
     <row r="5">
@@ -19375,28 +19375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1404.816720142638</v>
+        <v>1487.430871387412</v>
       </c>
       <c r="AB5" t="n">
-        <v>1922.132212638794</v>
+        <v>2035.168539051019</v>
       </c>
       <c r="AC5" t="n">
-        <v>1738.686611994051</v>
+        <v>1840.934910060973</v>
       </c>
       <c r="AD5" t="n">
-        <v>1404816.720142638</v>
+        <v>1487430.871387412</v>
       </c>
       <c r="AE5" t="n">
-        <v>1922132.212638794</v>
+        <v>2035168.539051019</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251600874430035e-06</v>
+        <v>2.127638534957444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1738686.611994051</v>
+        <v>1840934.910060973</v>
       </c>
     </row>
     <row r="6">
@@ -19481,28 +19481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319.100486615921</v>
+        <v>1401.799889206716</v>
       </c>
       <c r="AB6" t="n">
-        <v>1804.851480394203</v>
+        <v>1918.004451459077</v>
       </c>
       <c r="AC6" t="n">
-        <v>1632.598988230342</v>
+        <v>1734.952798547977</v>
       </c>
       <c r="AD6" t="n">
-        <v>1319100.486615921</v>
+        <v>1401799.889206716</v>
       </c>
       <c r="AE6" t="n">
-        <v>1804851.480394203</v>
+        <v>1918004.451459077</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296963053652178e-06</v>
+        <v>2.204751233194115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.74869791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1632598.988230342</v>
+        <v>1734952.798547977</v>
       </c>
     </row>
     <row r="7">
@@ -19587,28 +19587,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1267.858502079585</v>
+        <v>1350.387312469788</v>
       </c>
       <c r="AB7" t="n">
-        <v>1734.739936514778</v>
+        <v>1847.659495804806</v>
       </c>
       <c r="AC7" t="n">
-        <v>1569.1787916966</v>
+        <v>1671.321466731584</v>
       </c>
       <c r="AD7" t="n">
-        <v>1267858.502079585</v>
+        <v>1350387.312469788</v>
       </c>
       <c r="AE7" t="n">
-        <v>1734739.936514779</v>
+        <v>1847659.495804806</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.328961271360743e-06</v>
+        <v>2.25914608257268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.36892361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1569178.7916966</v>
+        <v>1671321.466731583</v>
       </c>
     </row>
     <row r="8">
@@ -19693,28 +19693,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1230.469457022926</v>
+        <v>1302.831523798422</v>
       </c>
       <c r="AB8" t="n">
-        <v>1683.582595580005</v>
+        <v>1782.591567731318</v>
       </c>
       <c r="AC8" t="n">
-        <v>1522.903835580862</v>
+        <v>1612.463530390019</v>
       </c>
       <c r="AD8" t="n">
-        <v>1230469.457022926</v>
+        <v>1302831.523798422</v>
       </c>
       <c r="AE8" t="n">
-        <v>1683582.595580005</v>
+        <v>1782591.567731318</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.351830585781865e-06</v>
+        <v>2.298022401393242e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.10850694444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1522903.835580862</v>
+        <v>1612463.530390019</v>
       </c>
     </row>
     <row r="9">
@@ -19799,28 +19799,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1186.724302144912</v>
+        <v>1269.338363881135</v>
       </c>
       <c r="AB9" t="n">
-        <v>1623.728544775878</v>
+        <v>1736.764748718555</v>
       </c>
       <c r="AC9" t="n">
-        <v>1468.762171379793</v>
+        <v>1571.010358665489</v>
       </c>
       <c r="AD9" t="n">
-        <v>1186724.302144912</v>
+        <v>1269338.363881135</v>
       </c>
       <c r="AE9" t="n">
-        <v>1623728.544775878</v>
+        <v>1736764.748718555</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.371594190837155e-06</v>
+        <v>2.331619220127061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.88932291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1468762.171379793</v>
+        <v>1571010.358665489</v>
       </c>
     </row>
     <row r="10">
@@ -19905,28 +19905,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1173.090212278384</v>
+        <v>1255.704274014608</v>
       </c>
       <c r="AB10" t="n">
-        <v>1605.073781526902</v>
+        <v>1718.109985469578</v>
       </c>
       <c r="AC10" t="n">
-        <v>1451.887792553174</v>
+        <v>1554.135979838871</v>
       </c>
       <c r="AD10" t="n">
-        <v>1173090.212278384</v>
+        <v>1255704.274014608</v>
       </c>
       <c r="AE10" t="n">
-        <v>1605073.781526902</v>
+        <v>1718109.985469578</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.378276171593944e-06</v>
+        <v>2.342978144556115e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1451887.792553175</v>
+        <v>1554135.97983887</v>
       </c>
     </row>
     <row r="11">
@@ -20011,28 +20011,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1147.56130997272</v>
+        <v>1230.175371708943</v>
       </c>
       <c r="AB11" t="n">
-        <v>1570.14401113661</v>
+        <v>1683.180215079286</v>
       </c>
       <c r="AC11" t="n">
-        <v>1420.291670424691</v>
+        <v>1522.539857710387</v>
       </c>
       <c r="AD11" t="n">
-        <v>1147561.30997272</v>
+        <v>1230175.371708944</v>
       </c>
       <c r="AE11" t="n">
-        <v>1570144.01113661</v>
+        <v>1683180.215079286</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.392393032347723e-06</v>
+        <v>2.366975872223128e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.66796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1420291.670424691</v>
+        <v>1522539.857710387</v>
       </c>
     </row>
     <row r="12">
@@ -20117,28 +20117,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1130.417711948397</v>
+        <v>1213.03177368462</v>
       </c>
       <c r="AB12" t="n">
-        <v>1546.687383997565</v>
+        <v>1659.723587940241</v>
       </c>
       <c r="AC12" t="n">
-        <v>1399.073710858213</v>
+        <v>1501.321898143909</v>
       </c>
       <c r="AD12" t="n">
-        <v>1130417.711948397</v>
+        <v>1213031.77368462</v>
       </c>
       <c r="AE12" t="n">
-        <v>1546687.383997565</v>
+        <v>1659723.587940241</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.400204361964814e-06</v>
+        <v>2.380254614865543e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.58550347222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1399073.710858213</v>
+        <v>1501321.898143909</v>
       </c>
     </row>
     <row r="13">
@@ -20223,28 +20223,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1113.08240085521</v>
+        <v>1185.529718976727</v>
       </c>
       <c r="AB13" t="n">
-        <v>1522.968446579916</v>
+        <v>1622.094063383878</v>
       </c>
       <c r="AC13" t="n">
-        <v>1377.618475537968</v>
+        <v>1467.283682597837</v>
       </c>
       <c r="AD13" t="n">
-        <v>1113082.40085521</v>
+        <v>1185529.718976727</v>
       </c>
       <c r="AE13" t="n">
-        <v>1522968.446579916</v>
+        <v>1622094.063383878</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.408015691581905e-06</v>
+        <v>2.393533357507957e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1377618.475537968</v>
+        <v>1467283.682597837</v>
       </c>
     </row>
     <row r="14">
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1099.026257632815</v>
+        <v>1171.30298355374</v>
       </c>
       <c r="AB14" t="n">
-        <v>1503.736211309762</v>
+        <v>1602.628416338877</v>
       </c>
       <c r="AC14" t="n">
-        <v>1360.221737809386</v>
+        <v>1449.675809586604</v>
       </c>
       <c r="AD14" t="n">
-        <v>1099026.257632816</v>
+        <v>1171302.98355374</v>
       </c>
       <c r="AE14" t="n">
-        <v>1503736.211309762</v>
+        <v>1602628.416338877</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.414415335123618e-06</v>
+        <v>2.40441232738367e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1360221.737809386</v>
+        <v>1449675.809586604</v>
       </c>
     </row>
     <row r="15">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1080.073036518626</v>
+        <v>1152.349762439551</v>
       </c>
       <c r="AB15" t="n">
-        <v>1477.803578024225</v>
+        <v>1576.695783053341</v>
       </c>
       <c r="AC15" t="n">
-        <v>1336.764078647941</v>
+        <v>1426.218150425159</v>
       </c>
       <c r="AD15" t="n">
-        <v>1080073.036518626</v>
+        <v>1152349.762439551</v>
       </c>
       <c r="AE15" t="n">
-        <v>1477803.578024225</v>
+        <v>1576695.783053341</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.421756102715583e-06</v>
+        <v>2.416891145770517e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.36631944444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1336764.078647941</v>
+        <v>1426218.150425159</v>
       </c>
     </row>
     <row r="16">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1060.493726744893</v>
+        <v>1132.770452665818</v>
       </c>
       <c r="AB16" t="n">
-        <v>1451.01430261362</v>
+        <v>1549.906507642735</v>
       </c>
       <c r="AC16" t="n">
-        <v>1312.531534083539</v>
+        <v>1401.985605860757</v>
       </c>
       <c r="AD16" t="n">
-        <v>1060493.726744893</v>
+        <v>1132770.452665818</v>
       </c>
       <c r="AE16" t="n">
-        <v>1451014.30261362</v>
+        <v>1549906.507642735</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.430696781192976e-06</v>
+        <v>2.432089706626292e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.27517361111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>1312531.534083539</v>
+        <v>1401985.605860757</v>
       </c>
     </row>
     <row r="17">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1052.65810000552</v>
+        <v>1124.934825926445</v>
       </c>
       <c r="AB17" t="n">
-        <v>1440.293252425354</v>
+        <v>1539.18545745447</v>
       </c>
       <c r="AC17" t="n">
-        <v>1302.833685878153</v>
+        <v>1392.287757655372</v>
       </c>
       <c r="AD17" t="n">
-        <v>1052658.10000552</v>
+        <v>1124934.825926445</v>
       </c>
       <c r="AE17" t="n">
-        <v>1440293.252425354</v>
+        <v>1539185.45745447</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.428532195877397e-06</v>
+        <v>2.428410055050684e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1302833.685878153</v>
+        <v>1392287.757655372</v>
       </c>
     </row>
     <row r="18">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1039.124023326513</v>
+        <v>1111.400749247438</v>
       </c>
       <c r="AB18" t="n">
-        <v>1421.775331631814</v>
+        <v>1520.667536660929</v>
       </c>
       <c r="AC18" t="n">
-        <v>1286.083089455083</v>
+        <v>1375.537161232302</v>
       </c>
       <c r="AD18" t="n">
-        <v>1039124.023326513</v>
+        <v>1111400.749247438</v>
       </c>
       <c r="AE18" t="n">
-        <v>1421775.331631814</v>
+        <v>1520667.536660929</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.433708378153782e-06</v>
+        <v>2.437209221861923e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1286083.089455083</v>
+        <v>1375537.161232301</v>
       </c>
     </row>
     <row r="19">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1026.79949774848</v>
+        <v>1099.076223669405</v>
       </c>
       <c r="AB19" t="n">
-        <v>1404.912372016254</v>
+        <v>1503.804577045369</v>
       </c>
       <c r="AC19" t="n">
-        <v>1270.829507037921</v>
+        <v>1360.283578815138</v>
       </c>
       <c r="AD19" t="n">
-        <v>1026799.49774848</v>
+        <v>1099076.223669405</v>
       </c>
       <c r="AE19" t="n">
-        <v>1404912.372016254</v>
+        <v>1503804.577045369</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.436814087519614e-06</v>
+        <v>2.442488721948665e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.21440972222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>1270829.507037921</v>
+        <v>1360283.578815138</v>
       </c>
     </row>
     <row r="20">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1017.420751994408</v>
+        <v>1089.697477915333</v>
       </c>
       <c r="AB20" t="n">
-        <v>1392.079958314473</v>
+        <v>1490.972163343588</v>
       </c>
       <c r="AC20" t="n">
-        <v>1259.221800889431</v>
+        <v>1348.675872666649</v>
       </c>
       <c r="AD20" t="n">
-        <v>1017420.751994408</v>
+        <v>1089697.477915333</v>
       </c>
       <c r="AE20" t="n">
-        <v>1392079.958314473</v>
+        <v>1490972.163343588</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.438225773594992e-06</v>
+        <v>2.444888494715366e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>1259221.800889431</v>
+        <v>1348675.872666649</v>
       </c>
     </row>
     <row r="21">
@@ -21071,28 +21071,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1015.023418711264</v>
+        <v>1087.300144632189</v>
       </c>
       <c r="AB21" t="n">
-        <v>1388.799821153595</v>
+        <v>1487.69202618271</v>
       </c>
       <c r="AC21" t="n">
-        <v>1256.254715415486</v>
+        <v>1345.708787192704</v>
       </c>
       <c r="AD21" t="n">
-        <v>1015023.418711264</v>
+        <v>1087300.144632189</v>
       </c>
       <c r="AE21" t="n">
-        <v>1388799.821153595</v>
+        <v>1487692.02618271</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44001390929047e-06</v>
+        <v>2.447928206886522e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.18185763888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>1256254.715415486</v>
+        <v>1345708.787192704</v>
       </c>
     </row>
     <row r="22">
@@ -21177,28 +21177,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1017.760105619544</v>
+        <v>1090.036831540469</v>
       </c>
       <c r="AB22" t="n">
-        <v>1392.544276915609</v>
+        <v>1491.436481944724</v>
       </c>
       <c r="AC22" t="n">
-        <v>1259.64180557495</v>
+        <v>1349.095877352169</v>
       </c>
       <c r="AD22" t="n">
-        <v>1017760.105619544</v>
+        <v>1090036.831540469</v>
       </c>
       <c r="AE22" t="n">
-        <v>1392544.276915609</v>
+        <v>1491436.481944724</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.440108021695495e-06</v>
+        <v>2.448088191737635e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.18185763888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>1259641.805574951</v>
+        <v>1349095.877352169</v>
       </c>
     </row>
     <row r="23">
@@ -21283,28 +21283,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1021.958794964822</v>
+        <v>1094.235520885747</v>
       </c>
       <c r="AB23" t="n">
-        <v>1398.289108910919</v>
+        <v>1497.181313940034</v>
       </c>
       <c r="AC23" t="n">
-        <v>1264.838358867551</v>
+        <v>1354.292430644768</v>
       </c>
       <c r="AD23" t="n">
-        <v>1021958.794964822</v>
+        <v>1094235.520885747</v>
       </c>
       <c r="AE23" t="n">
-        <v>1398289.108910919</v>
+        <v>1497181.313940034</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.44001390929047e-06</v>
+        <v>2.447928206886522e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.18402777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>1264838.358867551</v>
+        <v>1354292.430644768</v>
       </c>
     </row>
   </sheetData>
@@ -21580,28 +21580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1803.749822956032</v>
+        <v>1918.876897580737</v>
       </c>
       <c r="AB2" t="n">
-        <v>2467.970083594452</v>
+        <v>2625.492026144044</v>
       </c>
       <c r="AC2" t="n">
-        <v>2232.430482633964</v>
+        <v>2374.918752070058</v>
       </c>
       <c r="AD2" t="n">
-        <v>1803749.822956032</v>
+        <v>1918876.897580737</v>
       </c>
       <c r="AE2" t="n">
-        <v>2467970.083594452</v>
+        <v>2625492.026144044</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.010312488948083e-06</v>
+        <v>1.821832497862653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.87065972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2232430.482633964</v>
+        <v>2374918.752070058</v>
       </c>
     </row>
     <row r="3">
@@ -21686,28 +21686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1170.667955473954</v>
+        <v>1257.055931869769</v>
       </c>
       <c r="AB3" t="n">
-        <v>1601.759542904653</v>
+        <v>1719.959383377945</v>
       </c>
       <c r="AC3" t="n">
-        <v>1448.88986021347</v>
+        <v>1555.808873806509</v>
       </c>
       <c r="AD3" t="n">
-        <v>1170667.955473954</v>
+        <v>1257055.931869769</v>
       </c>
       <c r="AE3" t="n">
-        <v>1601759.542904653</v>
+        <v>1719959.383377946</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.305373014290373e-06</v>
+        <v>2.353896448160544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1448889.860213469</v>
+        <v>1555808.873806509</v>
       </c>
     </row>
     <row r="4">
@@ -21792,28 +21792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1022.674329742956</v>
+        <v>1099.539500632188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1399.268135161528</v>
+        <v>1504.438453024186</v>
       </c>
       <c r="AC4" t="n">
-        <v>1265.723948226873</v>
+        <v>1360.856958560188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1022674.329742956</v>
+        <v>1099539.500632188</v>
       </c>
       <c r="AE4" t="n">
-        <v>1399268.135161528</v>
+        <v>1504438.453024186</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.409937251532103e-06</v>
+        <v>2.542450511982467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.67057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1265723.948226873</v>
+        <v>1360856.958560188</v>
       </c>
     </row>
     <row r="5">
@@ -21898,28 +21898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>954.0758941408617</v>
+        <v>1021.333008177491</v>
       </c>
       <c r="AB5" t="n">
-        <v>1305.408729221353</v>
+        <v>1397.432879820728</v>
       </c>
       <c r="AC5" t="n">
-        <v>1180.822352257125</v>
+        <v>1264.063847080002</v>
       </c>
       <c r="AD5" t="n">
-        <v>954075.8941408617</v>
+        <v>1021333.008177491</v>
       </c>
       <c r="AE5" t="n">
-        <v>1305408.729221354</v>
+        <v>1397432.879820728</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464001136610348e-06</v>
+        <v>2.639940490453198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.09331597222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1180822.352257125</v>
+        <v>1264063.847080002</v>
       </c>
     </row>
     <row r="6">
@@ -22004,28 +22004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>898.0189406464149</v>
+        <v>974.7987706810752</v>
       </c>
       <c r="AB6" t="n">
-        <v>1228.709132392003</v>
+        <v>1333.762683132463</v>
       </c>
       <c r="AC6" t="n">
-        <v>1111.442857300608</v>
+        <v>1206.470244601983</v>
       </c>
       <c r="AD6" t="n">
-        <v>898018.9406464149</v>
+        <v>974798.7706810752</v>
       </c>
       <c r="AE6" t="n">
-        <v>1228709.132392003</v>
+        <v>1333762.683132463</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.497905606913655e-06</v>
+        <v>2.701078273561962e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.75043402777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1111442.857300607</v>
+        <v>1206470.244601983</v>
       </c>
     </row>
     <row r="7">
@@ -22110,28 +22110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>869.9376373828785</v>
+        <v>946.7174674175388</v>
       </c>
       <c r="AB7" t="n">
-        <v>1190.287054407167</v>
+        <v>1295.340605147627</v>
       </c>
       <c r="AC7" t="n">
-        <v>1076.687728512919</v>
+        <v>1171.715115814295</v>
       </c>
       <c r="AD7" t="n">
-        <v>869937.6373828785</v>
+        <v>946717.4674175389</v>
       </c>
       <c r="AE7" t="n">
-        <v>1190287.054407167</v>
+        <v>1295340.605147627</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.513076075607927e-06</v>
+        <v>2.728434218556574e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.60286458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1076687.728512919</v>
+        <v>1171715.115814295</v>
       </c>
     </row>
     <row r="8">
@@ -22216,28 +22216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>833.3576891575342</v>
+        <v>900.5294623395914</v>
       </c>
       <c r="AB8" t="n">
-        <v>1140.236755451831</v>
+        <v>1232.144138929007</v>
       </c>
       <c r="AC8" t="n">
-        <v>1031.414159843845</v>
+        <v>1114.550031634782</v>
       </c>
       <c r="AD8" t="n">
-        <v>833357.6891575342</v>
+        <v>900529.4623395915</v>
       </c>
       <c r="AE8" t="n">
-        <v>1140236.755451831</v>
+        <v>1232144.138929007</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.534762718774907e-06</v>
+        <v>2.76754036811263e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.39670138888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1031414.159843845</v>
+        <v>1114550.031634782</v>
       </c>
     </row>
     <row r="9">
@@ -22322,28 +22322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>808.6881859197975</v>
+        <v>875.8599591018551</v>
       </c>
       <c r="AB9" t="n">
-        <v>1106.482852780288</v>
+        <v>1198.390236257465</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000.881682269374</v>
+        <v>1084.017554060312</v>
       </c>
       <c r="AD9" t="n">
-        <v>808688.1859197975</v>
+        <v>875859.9591018551</v>
       </c>
       <c r="AE9" t="n">
-        <v>1106482.852780288</v>
+        <v>1198390.236257465</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.545758763197601e-06</v>
+        <v>2.787368838310067e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.29470486111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000881.682269374</v>
+        <v>1084017.554060312</v>
       </c>
     </row>
     <row r="10">
@@ -22428,28 +22428,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>802.6143660287815</v>
+        <v>869.7861392108388</v>
       </c>
       <c r="AB10" t="n">
-        <v>1098.172384447378</v>
+        <v>1190.079767924554</v>
       </c>
       <c r="AC10" t="n">
-        <v>993.3643533703408</v>
+        <v>1076.500225161279</v>
       </c>
       <c r="AD10" t="n">
-        <v>802614.3660287815</v>
+        <v>869786.1392108388</v>
       </c>
       <c r="AE10" t="n">
-        <v>1098172.384447378</v>
+        <v>1190079.767924554</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.548405959077139e-06</v>
+        <v>2.792142358913153e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.26866319444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>993364.3533703409</v>
+        <v>1076500.225161279</v>
       </c>
     </row>
     <row r="11">
@@ -22534,28 +22534,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>807.3491355848662</v>
+        <v>874.5209087669235</v>
       </c>
       <c r="AB11" t="n">
-        <v>1104.650705037303</v>
+        <v>1196.55808851448</v>
       </c>
       <c r="AC11" t="n">
-        <v>999.2243921355441</v>
+        <v>1082.360263926482</v>
       </c>
       <c r="AD11" t="n">
-        <v>807349.1355848662</v>
+        <v>874520.9087669235</v>
       </c>
       <c r="AE11" t="n">
-        <v>1104650.705037303</v>
+        <v>1196558.08851448</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.547998698172595e-06</v>
+        <v>2.791407971128063e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.27300347222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>999224.3921355441</v>
+        <v>1082360.263926482</v>
       </c>
     </row>
   </sheetData>
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1311.035366002037</v>
+        <v>1403.381978796207</v>
       </c>
       <c r="AB2" t="n">
-        <v>1793.816426562278</v>
+        <v>1920.169136232287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1622.61710444834</v>
+        <v>1736.910888844585</v>
       </c>
       <c r="AD2" t="n">
-        <v>1311035.366002037</v>
+        <v>1403381.978796207</v>
       </c>
       <c r="AE2" t="n">
-        <v>1793816.426562278</v>
+        <v>1920169.136232286</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18148294709445e-06</v>
+        <v>2.204269526834265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1622617.10444834</v>
+        <v>1736910.888844585</v>
       </c>
     </row>
     <row r="3">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>935.5851648165226</v>
+        <v>1009.513677466312</v>
       </c>
       <c r="AB3" t="n">
-        <v>1280.108897606388</v>
+        <v>1381.261150109623</v>
       </c>
       <c r="AC3" t="n">
-        <v>1157.937101062955</v>
+        <v>1249.43552455536</v>
       </c>
       <c r="AD3" t="n">
-        <v>935585.1648165226</v>
+        <v>1009513.677466312</v>
       </c>
       <c r="AE3" t="n">
-        <v>1280108.897606388</v>
+        <v>1381261.150109623</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.436127521239313e-06</v>
+        <v>2.679354906899711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.02647569444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1157937.101062955</v>
+        <v>1249435.52455536</v>
       </c>
     </row>
     <row r="4">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>828.6071623372293</v>
+        <v>893.369295342114</v>
       </c>
       <c r="AB4" t="n">
-        <v>1133.736875077837</v>
+        <v>1222.347282558785</v>
       </c>
       <c r="AC4" t="n">
-        <v>1025.534618930106</v>
+        <v>1105.68817348656</v>
       </c>
       <c r="AD4" t="n">
-        <v>828607.1623372292</v>
+        <v>893369.2953421141</v>
       </c>
       <c r="AE4" t="n">
-        <v>1133736.875077837</v>
+        <v>1222347.282558785</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524791771128986e-06</v>
+        <v>2.844774056310253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.09548611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1025534.618930106</v>
+        <v>1105688.17348656</v>
       </c>
     </row>
     <row r="5">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>762.6349901206503</v>
+        <v>836.5634132618885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1043.470838564288</v>
+        <v>1144.622968597975</v>
       </c>
       <c r="AC5" t="n">
-        <v>943.8834462522315</v>
+        <v>1035.381758963409</v>
       </c>
       <c r="AD5" t="n">
-        <v>762634.9901206503</v>
+        <v>836563.4132618885</v>
       </c>
       <c r="AE5" t="n">
-        <v>1043470.838564288</v>
+        <v>1144622.968597975</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.571245050377404e-06</v>
+        <v>2.931441026934437e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>943883.4462522315</v>
+        <v>1035381.758963409</v>
       </c>
     </row>
     <row r="6">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>723.3726541451223</v>
+        <v>788.0494462954355</v>
       </c>
       <c r="AB6" t="n">
-        <v>989.7503783505549</v>
+        <v>1078.244018709305</v>
       </c>
       <c r="AC6" t="n">
-        <v>895.2899913641578</v>
+        <v>975.3379228886727</v>
       </c>
       <c r="AD6" t="n">
-        <v>723372.6541451223</v>
+        <v>788049.4462954354</v>
       </c>
       <c r="AE6" t="n">
-        <v>989750.378350555</v>
+        <v>1078244.018709305</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.595426209438224e-06</v>
+        <v>2.97655534041004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.42491319444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>895289.9913641578</v>
+        <v>975337.9228886727</v>
       </c>
     </row>
     <row r="7">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>717.980137045609</v>
+        <v>782.6569291959222</v>
       </c>
       <c r="AB7" t="n">
-        <v>982.3720985539369</v>
+        <v>1070.865738912686</v>
       </c>
       <c r="AC7" t="n">
-        <v>888.6158842358482</v>
+        <v>968.6638157603629</v>
       </c>
       <c r="AD7" t="n">
-        <v>717980.1370456091</v>
+        <v>782656.9291959222</v>
       </c>
       <c r="AE7" t="n">
-        <v>982372.0985539369</v>
+        <v>1070865.738912686</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.600516979766818e-06</v>
+        <v>2.98605309061543e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.37934027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>888615.8842358482</v>
+        <v>968663.8157603629</v>
       </c>
     </row>
     <row r="8">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>722.2419241664579</v>
+        <v>786.9187163167711</v>
       </c>
       <c r="AB8" t="n">
-        <v>988.2032637094604</v>
+        <v>1076.69690406821</v>
       </c>
       <c r="AC8" t="n">
-        <v>893.8905311730203</v>
+        <v>973.9384626975352</v>
       </c>
       <c r="AD8" t="n">
-        <v>722241.924166458</v>
+        <v>786918.7163167711</v>
       </c>
       <c r="AE8" t="n">
-        <v>988203.2637094604</v>
+        <v>1076696.90406821</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.600623037481997e-06</v>
+        <v>2.986250960411375e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.37934027777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>893890.5311730204</v>
+        <v>973938.4626975352</v>
       </c>
     </row>
   </sheetData>
@@ -44057,28 +44057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1022.39366383339</v>
+        <v>1103.009816305804</v>
       </c>
       <c r="AB2" t="n">
-        <v>1398.884115681955</v>
+        <v>1509.186692028351</v>
       </c>
       <c r="AC2" t="n">
-        <v>1265.376579027456</v>
+        <v>1365.15203229799</v>
       </c>
       <c r="AD2" t="n">
-        <v>1022393.66383339</v>
+        <v>1103009.816305804</v>
       </c>
       <c r="AE2" t="n">
-        <v>1398884.115681955</v>
+        <v>1509186.692028351</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.321149776858077e-06</v>
+        <v>2.540620013898195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1265376.579027456</v>
+        <v>1365152.03229799</v>
       </c>
     </row>
     <row r="3">
@@ -44163,28 +44163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>761.6478462874528</v>
+        <v>833.2118352588022</v>
       </c>
       <c r="AB3" t="n">
-        <v>1042.120184821995</v>
+        <v>1140.037191712966</v>
       </c>
       <c r="AC3" t="n">
-        <v>942.6616970074484</v>
+        <v>1031.233642188127</v>
       </c>
       <c r="AD3" t="n">
-        <v>761647.8462874528</v>
+        <v>833211.8352588023</v>
       </c>
       <c r="AE3" t="n">
-        <v>1042120.184821995</v>
+        <v>1140037.191712966</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544303625565047e-06</v>
+        <v>2.969753140311492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>942661.6970074484</v>
+        <v>1031233.642188127</v>
       </c>
     </row>
     <row r="4">
@@ -44269,28 +44269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>672.2932263499514</v>
+        <v>743.9424666673215</v>
       </c>
       <c r="AB4" t="n">
-        <v>919.8612517758896</v>
+        <v>1017.89490331951</v>
       </c>
       <c r="AC4" t="n">
-        <v>832.0709849397733</v>
+        <v>920.7484423711646</v>
       </c>
       <c r="AD4" t="n">
-        <v>672293.2263499514</v>
+        <v>743942.4666673215</v>
       </c>
       <c r="AE4" t="n">
-        <v>919861.2517758897</v>
+        <v>1017894.90331951</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.621431037384614e-06</v>
+        <v>3.118072013403207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.68315972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>832070.9849397733</v>
+        <v>920748.4423711647</v>
       </c>
     </row>
     <row r="5">
@@ -44375,28 +44375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>653.1293941898077</v>
+        <v>724.7786345071779</v>
       </c>
       <c r="AB5" t="n">
-        <v>893.6404511657748</v>
+        <v>991.6741027093951</v>
       </c>
       <c r="AC5" t="n">
-        <v>808.3526607387632</v>
+        <v>897.0301181701545</v>
       </c>
       <c r="AD5" t="n">
-        <v>653129.3941898077</v>
+        <v>724778.6345071779</v>
       </c>
       <c r="AE5" t="n">
-        <v>893640.4511657748</v>
+        <v>991674.1027093951</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.636242133537732e-06</v>
+        <v>3.146554300554532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.55078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>808352.6607387633</v>
+        <v>897030.1181701545</v>
       </c>
     </row>
     <row r="6">
@@ -44481,28 +44481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>657.7128585224352</v>
+        <v>729.3620988398052</v>
       </c>
       <c r="AB6" t="n">
-        <v>899.9117492738509</v>
+        <v>997.9454008174713</v>
       </c>
       <c r="AC6" t="n">
-        <v>814.0254349572267</v>
+        <v>902.7028923886179</v>
       </c>
       <c r="AD6" t="n">
-        <v>657712.8585224352</v>
+        <v>729362.0988398052</v>
       </c>
       <c r="AE6" t="n">
-        <v>899911.7492738509</v>
+        <v>997945.4008174713</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.636571269007801e-06</v>
+        <v>3.147187240269006e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>814025.4349572267</v>
+        <v>902702.8923886179</v>
       </c>
     </row>
   </sheetData>
@@ -44778,28 +44778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.4943789959402</v>
+        <v>637.7109129967613</v>
       </c>
       <c r="AB2" t="n">
-        <v>780.5755777779484</v>
+        <v>872.5442049820656</v>
       </c>
       <c r="AC2" t="n">
-        <v>706.0785401795243</v>
+        <v>789.2698106820596</v>
       </c>
       <c r="AD2" t="n">
-        <v>570494.3789959402</v>
+        <v>637710.9129967613</v>
       </c>
       <c r="AE2" t="n">
-        <v>780575.5777779485</v>
+        <v>872544.2049820656</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.623595657460537e-06</v>
+        <v>3.348827301245598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.74001736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>706078.5401795243</v>
+        <v>789269.8106820596</v>
       </c>
     </row>
     <row r="3">
@@ -44884,28 +44884,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.0132998600011</v>
+        <v>607.0592416602299</v>
       </c>
       <c r="AB3" t="n">
-        <v>738.8700205738514</v>
+        <v>830.6052360031214</v>
       </c>
       <c r="AC3" t="n">
-        <v>668.3533028208691</v>
+        <v>751.3334380407533</v>
       </c>
       <c r="AD3" t="n">
-        <v>540013.2998600011</v>
+        <v>607059.2416602299</v>
       </c>
       <c r="AE3" t="n">
-        <v>738870.0205738514</v>
+        <v>830605.2360031214</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.673876724020999e-06</v>
+        <v>3.452536995010602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.26692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>668353.3028208691</v>
+        <v>751333.4380407534</v>
       </c>
     </row>
   </sheetData>
@@ -45181,28 +45181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2410.710681808364</v>
+        <v>2539.458278566229</v>
       </c>
       <c r="AB2" t="n">
-        <v>3298.440707899653</v>
+        <v>3474.598849726872</v>
       </c>
       <c r="AC2" t="n">
-        <v>2983.642156128194</v>
+        <v>3142.988012138922</v>
       </c>
       <c r="AD2" t="n">
-        <v>2410710.681808365</v>
+        <v>2539458.278566229</v>
       </c>
       <c r="AE2" t="n">
-        <v>3298440.707899653</v>
+        <v>3474598.849726872</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.687608327126983e-07</v>
+        <v>1.526378512393721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.59852430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2983642.156128194</v>
+        <v>3142988.012138922</v>
       </c>
     </row>
     <row r="3">
@@ -45287,28 +45287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1420.694426771068</v>
+        <v>1519.626004763799</v>
       </c>
       <c r="AB3" t="n">
-        <v>1943.856791322792</v>
+        <v>2079.219340885632</v>
       </c>
       <c r="AC3" t="n">
-        <v>1758.337827379086</v>
+        <v>1880.78156519418</v>
       </c>
       <c r="AD3" t="n">
-        <v>1420694.426771068</v>
+        <v>1519626.004763799</v>
       </c>
       <c r="AE3" t="n">
-        <v>1943856.791322792</v>
+        <v>2079219.340885632</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.195210862234643e-06</v>
+        <v>2.099938336536227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.87977430555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1758337.827379086</v>
+        <v>1880781.56519418</v>
       </c>
     </row>
     <row r="4">
@@ -45393,28 +45393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1218.020175149107</v>
+        <v>1297.216731564585</v>
       </c>
       <c r="AB4" t="n">
-        <v>1666.548938896692</v>
+        <v>1774.909161289831</v>
       </c>
       <c r="AC4" t="n">
-        <v>1507.495847184517</v>
+        <v>1605.514322036982</v>
       </c>
       <c r="AD4" t="n">
-        <v>1218020.175149107</v>
+        <v>1297216.731564585</v>
       </c>
       <c r="AE4" t="n">
-        <v>1666548.938896692</v>
+        <v>1774909.161289831</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.314564538186558e-06</v>
+        <v>2.3096380369467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25651041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1507495.847184517</v>
+        <v>1605514.322036982</v>
       </c>
     </row>
     <row r="5">
@@ -45499,28 +45499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1121.111321728695</v>
+        <v>1200.393129490194</v>
       </c>
       <c r="AB5" t="n">
-        <v>1533.953970330007</v>
+        <v>1642.430837375796</v>
       </c>
       <c r="AC5" t="n">
-        <v>1387.55555631963</v>
+        <v>1485.679543422807</v>
       </c>
       <c r="AD5" t="n">
-        <v>1121111.321728694</v>
+        <v>1200393.129490194</v>
       </c>
       <c r="AE5" t="n">
-        <v>1533953.970330007</v>
+        <v>1642430.837375796</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.375718525617365e-06</v>
+        <v>2.417083180473848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1387555.55631963</v>
+        <v>1485679.543422807</v>
       </c>
     </row>
     <row r="6">
@@ -45605,28 +45605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1065.894269569227</v>
+        <v>1135.26594086909</v>
       </c>
       <c r="AB6" t="n">
-        <v>1458.403563561008</v>
+        <v>1553.320944695621</v>
       </c>
       <c r="AC6" t="n">
-        <v>1319.215574337002</v>
+        <v>1405.074173833509</v>
       </c>
       <c r="AD6" t="n">
-        <v>1065894.269569227</v>
+        <v>1135265.94086909</v>
       </c>
       <c r="AE6" t="n">
-        <v>1458403.563561008</v>
+        <v>1553320.944695621</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414616794595093e-06</v>
+        <v>2.485425904617525e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.10850694444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1319215.574337002</v>
+        <v>1405074.173833509</v>
       </c>
     </row>
     <row r="7">
@@ -45711,28 +45711,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1016.82280233691</v>
+        <v>1096.019269243837</v>
       </c>
       <c r="AB7" t="n">
-        <v>1391.261817213407</v>
+        <v>1499.621917136998</v>
       </c>
       <c r="AC7" t="n">
-        <v>1258.481742026783</v>
+        <v>1356.500106098022</v>
       </c>
       <c r="AD7" t="n">
-        <v>1016822.80233691</v>
+        <v>1096019.269243838</v>
       </c>
       <c r="AE7" t="n">
-        <v>1391261.817213407</v>
+        <v>1499621.917136998</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439925288588197e-06</v>
+        <v>2.529891930199614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.84157986111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1258481.742026783</v>
+        <v>1356500.106098022</v>
       </c>
     </row>
     <row r="8">
@@ -45817,28 +45817,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>999.250678816391</v>
+        <v>1078.447145723318</v>
       </c>
       <c r="AB8" t="n">
-        <v>1367.218862585255</v>
+        <v>1475.578962508846</v>
       </c>
       <c r="AC8" t="n">
-        <v>1236.733413243844</v>
+        <v>1334.751777315083</v>
       </c>
       <c r="AD8" t="n">
-        <v>999250.6788163909</v>
+        <v>1078447.145723318</v>
       </c>
       <c r="AE8" t="n">
-        <v>1367218.862585255</v>
+        <v>1475578.962508846</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.448098848905036e-06</v>
+        <v>2.544252553247526e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1236733.413243844</v>
+        <v>1334751.777315082</v>
       </c>
     </row>
     <row r="9">
@@ -45923,28 +45923,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>962.5620356846759</v>
+        <v>1041.758502591603</v>
       </c>
       <c r="AB9" t="n">
-        <v>1317.019842463742</v>
+        <v>1425.379942387333</v>
       </c>
       <c r="AC9" t="n">
-        <v>1191.325317147961</v>
+        <v>1289.343681219199</v>
       </c>
       <c r="AD9" t="n">
-        <v>962562.0356846759</v>
+        <v>1041758.502591603</v>
       </c>
       <c r="AE9" t="n">
-        <v>1317019.842463742</v>
+        <v>1425379.942387333</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.470453043988439e-06</v>
+        <v>2.583527992185791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.53342013888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1191325.31714796</v>
+        <v>1289343.681219199</v>
       </c>
     </row>
     <row r="10">
@@ -46029,28 +46029,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>938.0963179850453</v>
+        <v>1007.382648430337</v>
       </c>
       <c r="AB10" t="n">
-        <v>1283.54476815582</v>
+        <v>1378.345382168235</v>
       </c>
       <c r="AC10" t="n">
-        <v>1161.045056949424</v>
+        <v>1246.798033413992</v>
       </c>
       <c r="AD10" t="n">
-        <v>938096.3179850453</v>
+        <v>1007382.648430336</v>
       </c>
       <c r="AE10" t="n">
-        <v>1283544.76815582</v>
+        <v>1378345.382168235</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48305805266983e-06</v>
+        <v>2.605674495199438e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1161045.056949424</v>
+        <v>1246798.033413992</v>
       </c>
     </row>
     <row r="11">
@@ -46135,28 +46135,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>915.1743192691945</v>
+        <v>984.4606497144858</v>
       </c>
       <c r="AB11" t="n">
-        <v>1252.181878265579</v>
+        <v>1346.982492277995</v>
       </c>
       <c r="AC11" t="n">
-        <v>1132.675397252216</v>
+        <v>1218.428373716784</v>
       </c>
       <c r="AD11" t="n">
-        <v>915174.3192691945</v>
+        <v>984460.6497144859</v>
       </c>
       <c r="AE11" t="n">
-        <v>1252181.878265579</v>
+        <v>1346982.492277995</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.492019426029255e-06</v>
+        <v>2.621419274685703e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1132675.397252216</v>
+        <v>1218428.373716784</v>
       </c>
     </row>
     <row r="12">
@@ -46241,28 +46241,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>894.8139345839927</v>
+        <v>964.1002650292839</v>
       </c>
       <c r="AB12" t="n">
-        <v>1224.323901702508</v>
+        <v>1319.124515714924</v>
       </c>
       <c r="AC12" t="n">
-        <v>1107.476146873409</v>
+        <v>1193.229123337977</v>
       </c>
       <c r="AD12" t="n">
-        <v>894813.9345839927</v>
+        <v>964100.2650292839</v>
       </c>
       <c r="AE12" t="n">
-        <v>1224323.901702508</v>
+        <v>1319124.515714924</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.500488416237065e-06</v>
+        <v>2.636298956397997e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.24262152777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1107476.146873409</v>
+        <v>1193229.123337977</v>
       </c>
     </row>
     <row r="13">
@@ -46347,28 +46347,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>877.7456189750596</v>
+        <v>947.031949420351</v>
       </c>
       <c r="AB13" t="n">
-        <v>1200.970279285426</v>
+        <v>1295.770893297841</v>
       </c>
       <c r="AC13" t="n">
-        <v>1086.351361402797</v>
+        <v>1172.104337867366</v>
       </c>
       <c r="AD13" t="n">
-        <v>877745.6189750596</v>
+        <v>947031.949420351</v>
       </c>
       <c r="AE13" t="n">
-        <v>1200970.279285426</v>
+        <v>1295770.893297842</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.508661976553904e-06</v>
+        <v>2.650659579445909e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.16449652777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1086351.361402798</v>
+        <v>1172104.337867366</v>
       </c>
     </row>
     <row r="14">
@@ -46453,28 +46453,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>883.4911017333486</v>
+        <v>952.7774321786399</v>
       </c>
       <c r="AB14" t="n">
-        <v>1208.831502268127</v>
+        <v>1303.632116280543</v>
       </c>
       <c r="AC14" t="n">
-        <v>1093.462320297326</v>
+        <v>1179.215296761893</v>
       </c>
       <c r="AD14" t="n">
-        <v>883491.1017333486</v>
+        <v>952777.4321786398</v>
       </c>
       <c r="AE14" t="n">
-        <v>1208831.502268127</v>
+        <v>1303632.116280543</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.503541191777089e-06</v>
+        <v>2.641662562596615e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.21440972222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1093462.320297325</v>
+        <v>1179215.296761893</v>
       </c>
     </row>
     <row r="15">
@@ -46559,28 +46559,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>887.3339875411555</v>
+        <v>956.6203179864466</v>
       </c>
       <c r="AB15" t="n">
-        <v>1214.089508166525</v>
+        <v>1308.89012217894</v>
       </c>
       <c r="AC15" t="n">
-        <v>1098.218509492438</v>
+        <v>1183.971485957006</v>
       </c>
       <c r="AD15" t="n">
-        <v>887333.9875411554</v>
+        <v>956620.3179864465</v>
       </c>
       <c r="AE15" t="n">
-        <v>1214089.508166525</v>
+        <v>1308890.12217894</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.503639668407412e-06</v>
+        <v>2.641835582151409e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1098218.509492438</v>
+        <v>1183971.485957006</v>
       </c>
     </row>
   </sheetData>
@@ -46856,28 +46856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3476.881020780753</v>
+        <v>3630.664281512415</v>
       </c>
       <c r="AB2" t="n">
-        <v>4757.222001797471</v>
+        <v>4967.635043569184</v>
       </c>
       <c r="AC2" t="n">
-        <v>4303.199410748754</v>
+        <v>4493.530927130327</v>
       </c>
       <c r="AD2" t="n">
-        <v>3476881.020780753</v>
+        <v>3630664.281512415</v>
       </c>
       <c r="AE2" t="n">
-        <v>4757222.001797471</v>
+        <v>4967635.043569184</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.101957866012783e-07</v>
+        <v>1.214355649168437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.99522569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4303199.410748755</v>
+        <v>4493530.927130327</v>
       </c>
     </row>
     <row r="3">
@@ -46962,28 +46962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1787.272796120881</v>
+        <v>1889.681271644444</v>
       </c>
       <c r="AB3" t="n">
-        <v>2445.425488563477</v>
+        <v>2585.545282717896</v>
       </c>
       <c r="AC3" t="n">
-        <v>2212.037512111208</v>
+        <v>2338.784469770896</v>
       </c>
       <c r="AD3" t="n">
-        <v>1787272.796120881</v>
+        <v>1889681.271644444</v>
       </c>
       <c r="AE3" t="n">
-        <v>2445425.488563478</v>
+        <v>2585545.282717897</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.069374174132791e-06</v>
+        <v>1.828510664147397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2212037.512111208</v>
+        <v>2338784.469770896</v>
       </c>
     </row>
     <row r="4">
@@ -47068,28 +47068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1477.700648959245</v>
+        <v>1559.763992647121</v>
       </c>
       <c r="AB4" t="n">
-        <v>2021.855219457683</v>
+        <v>2134.137906670644</v>
       </c>
       <c r="AC4" t="n">
-        <v>1828.892195004264</v>
+        <v>1930.458780139362</v>
       </c>
       <c r="AD4" t="n">
-        <v>1477700.648959246</v>
+        <v>1559763.992647121</v>
       </c>
       <c r="AE4" t="n">
-        <v>2021855.219457683</v>
+        <v>2134137.906670644</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.205643702401021e-06</v>
+        <v>2.061516371283404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.08116319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1828892.195004264</v>
+        <v>1930458.780139362</v>
       </c>
     </row>
     <row r="5">
@@ -47174,28 +47174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1349.185410525175</v>
+        <v>1431.163413358478</v>
       </c>
       <c r="AB5" t="n">
-        <v>1846.015000540014</v>
+        <v>1958.180920630778</v>
       </c>
       <c r="AC5" t="n">
-        <v>1669.8339197868</v>
+        <v>1771.294881889959</v>
       </c>
       <c r="AD5" t="n">
-        <v>1349185.410525175</v>
+        <v>1431163.413358479</v>
       </c>
       <c r="AE5" t="n">
-        <v>1846015.000540014</v>
+        <v>1958180.920630778</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.274727418681851e-06</v>
+        <v>2.179641827268789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1669833.9197868</v>
+        <v>1771294.881889959</v>
       </c>
     </row>
     <row r="6">
@@ -47280,28 +47280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1268.046661809974</v>
+        <v>1350.109915989298</v>
       </c>
       <c r="AB6" t="n">
-        <v>1734.997384958918</v>
+        <v>1847.279949702331</v>
       </c>
       <c r="AC6" t="n">
-        <v>1569.411669622562</v>
+        <v>1670.978143976433</v>
       </c>
       <c r="AD6" t="n">
-        <v>1268046.661809974</v>
+        <v>1350109.915989298</v>
       </c>
       <c r="AE6" t="n">
-        <v>1734997.384958918</v>
+        <v>1847279.949702331</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319043483933427e-06</v>
+        <v>2.255417360160513e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.61197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1569411.669622562</v>
+        <v>1670978.143976433</v>
       </c>
     </row>
     <row r="7">
@@ -47386,28 +47386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1220.441893229556</v>
+        <v>1302.334555208288</v>
       </c>
       <c r="AB7" t="n">
-        <v>1669.862440413023</v>
+        <v>1781.911593381589</v>
       </c>
       <c r="AC7" t="n">
-        <v>1510.493112766659</v>
+        <v>1611.848451837879</v>
       </c>
       <c r="AD7" t="n">
-        <v>1220441.893229556</v>
+        <v>1302334.555208288</v>
       </c>
       <c r="AE7" t="n">
-        <v>1669862.440413024</v>
+        <v>1781911.593381589</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.349220162198954e-06</v>
+        <v>2.30701611703325e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.26258680555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1510493.112766659</v>
+        <v>1611848.451837879</v>
       </c>
     </row>
     <row r="8">
@@ -47492,28 +47492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1183.808392233295</v>
+        <v>1255.613829148755</v>
       </c>
       <c r="AB8" t="n">
-        <v>1619.738868193938</v>
+        <v>1717.986234813973</v>
       </c>
       <c r="AC8" t="n">
-        <v>1465.153263931287</v>
+        <v>1554.024039772151</v>
       </c>
       <c r="AD8" t="n">
-        <v>1183808.392233295</v>
+        <v>1255613.829148755</v>
       </c>
       <c r="AE8" t="n">
-        <v>1619738.868193938</v>
+        <v>1717986.234813973</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37152053764675e-06</v>
+        <v>2.34514727384172e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.01519097222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1465153.263931287</v>
+        <v>1554024.039772151</v>
       </c>
     </row>
     <row r="9">
@@ -47598,28 +47598,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1134.601562727926</v>
+        <v>1216.579476052679</v>
       </c>
       <c r="AB9" t="n">
-        <v>1552.411913212585</v>
+        <v>1664.5777108338</v>
       </c>
       <c r="AC9" t="n">
-        <v>1404.25189903938</v>
+        <v>1505.712750361312</v>
       </c>
       <c r="AD9" t="n">
-        <v>1134601.562727926</v>
+        <v>1216579.476052678</v>
       </c>
       <c r="AE9" t="n">
-        <v>1552411.913212585</v>
+        <v>1664577.7108338</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.395813712602646e-06</v>
+        <v>2.38668589572669e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1404251.89903938</v>
+        <v>1505712.750361312</v>
       </c>
     </row>
     <row r="10">
@@ -47704,28 +47704,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1126.434675400417</v>
+        <v>1208.41258872517</v>
       </c>
       <c r="AB10" t="n">
-        <v>1541.237617673447</v>
+        <v>1653.403415294662</v>
       </c>
       <c r="AC10" t="n">
-        <v>1394.144062583275</v>
+        <v>1495.604913905207</v>
       </c>
       <c r="AD10" t="n">
-        <v>1126434.675400417</v>
+        <v>1208412.58872517</v>
       </c>
       <c r="AE10" t="n">
-        <v>1541237.617673447</v>
+        <v>1653403.415294662</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.398755464257461e-06</v>
+        <v>2.391715963220573e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1394144.062583275</v>
+        <v>1495604.913905207</v>
       </c>
     </row>
     <row r="11">
@@ -47810,28 +47810,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1104.367993280077</v>
+        <v>1186.345906604831</v>
       </c>
       <c r="AB11" t="n">
-        <v>1511.045009683091</v>
+        <v>1623.210807304306</v>
       </c>
       <c r="AC11" t="n">
-        <v>1366.832994723927</v>
+        <v>1468.293846045859</v>
       </c>
       <c r="AD11" t="n">
-        <v>1104367.993280077</v>
+        <v>1186345.906604831</v>
       </c>
       <c r="AE11" t="n">
-        <v>1511045.009683091</v>
+        <v>1623210.807304306</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.410142890018038e-06</v>
+        <v>2.411187192229153e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.60503472222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1366832.994723927</v>
+        <v>1468293.846045859</v>
       </c>
     </row>
     <row r="12">
@@ -47916,28 +47916,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1083.92866143569</v>
+        <v>1155.819349697171</v>
       </c>
       <c r="AB12" t="n">
-        <v>1483.079014133919</v>
+        <v>1581.443025406603</v>
       </c>
       <c r="AC12" t="n">
-        <v>1341.536034539447</v>
+        <v>1430.512322631022</v>
       </c>
       <c r="AD12" t="n">
-        <v>1083928.66143569</v>
+        <v>1155819.349697171</v>
       </c>
       <c r="AE12" t="n">
-        <v>1483079.014133919</v>
+        <v>1581443.025406603</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.419632411485185e-06</v>
+        <v>2.42741321640297e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.50737847222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1341536.034539446</v>
+        <v>1430512.322631022</v>
       </c>
     </row>
     <row r="13">
@@ -48022,28 +48022,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1067.158905020407</v>
+        <v>1138.879001081295</v>
       </c>
       <c r="AB13" t="n">
-        <v>1460.13389357709</v>
+        <v>1558.264493074927</v>
       </c>
       <c r="AC13" t="n">
-        <v>1320.780764084882</v>
+        <v>1409.545916893807</v>
       </c>
       <c r="AD13" t="n">
-        <v>1067158.905020407</v>
+        <v>1138879.001081295</v>
       </c>
       <c r="AE13" t="n">
-        <v>1460133.89357709</v>
+        <v>1558264.493074927</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.425990390868173e-06</v>
+        <v>2.438284652599427e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.44227430555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1320780.764084882</v>
+        <v>1409545.916893807</v>
       </c>
     </row>
     <row r="14">
@@ -48128,28 +48128,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1052.662912738826</v>
+        <v>1124.383008799714</v>
       </c>
       <c r="AB14" t="n">
-        <v>1440.299837419386</v>
+        <v>1538.430436917223</v>
       </c>
       <c r="AC14" t="n">
-        <v>1302.839642409597</v>
+        <v>1391.604795218522</v>
       </c>
       <c r="AD14" t="n">
-        <v>1052662.912738826</v>
+        <v>1124383.008799714</v>
       </c>
       <c r="AE14" t="n">
-        <v>1440299.837419386</v>
+        <v>1538430.436917223</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.432158579821819e-06</v>
+        <v>2.448831568312408e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.37934027777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1302839.642409597</v>
+        <v>1391604.795218522</v>
       </c>
     </row>
     <row r="15">
@@ -48234,28 +48234,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1035.463880309669</v>
+        <v>1107.183976370557</v>
       </c>
       <c r="AB15" t="n">
-        <v>1416.767362482054</v>
+        <v>1514.897961979891</v>
       </c>
       <c r="AC15" t="n">
-        <v>1281.553073852248</v>
+        <v>1370.318226661173</v>
       </c>
       <c r="AD15" t="n">
-        <v>1035463.880309669</v>
+        <v>1107183.976370557</v>
       </c>
       <c r="AE15" t="n">
-        <v>1416767.362482054</v>
+        <v>1514897.961979891</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.439370616136851e-06</v>
+        <v>2.461163346684508e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.30772569444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1281553.073852248</v>
+        <v>1370318.226661173</v>
       </c>
     </row>
     <row r="16">
@@ -48340,28 +48340,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1021.215286624653</v>
+        <v>1092.935382685542</v>
       </c>
       <c r="AB16" t="n">
-        <v>1397.271807998627</v>
+        <v>1495.402407496464</v>
       </c>
       <c r="AC16" t="n">
-        <v>1263.918147726537</v>
+        <v>1352.683300535462</v>
       </c>
       <c r="AD16" t="n">
-        <v>1021215.286624653</v>
+        <v>1092935.382685542</v>
       </c>
       <c r="AE16" t="n">
-        <v>1397271.807998627</v>
+        <v>1495402.407496464</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.443451110367724e-06</v>
+        <v>2.468140537079249e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.26649305555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>1263918.147726536</v>
+        <v>1352683.300535462</v>
       </c>
     </row>
     <row r="17">
@@ -48446,28 +48446,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1003.253878613897</v>
+        <v>1074.973974674785</v>
       </c>
       <c r="AB17" t="n">
-        <v>1372.696217156913</v>
+        <v>1470.82681665475</v>
       </c>
       <c r="AC17" t="n">
-        <v>1241.688016782698</v>
+        <v>1330.453169591623</v>
       </c>
       <c r="AD17" t="n">
-        <v>1003253.878613897</v>
+        <v>1074973.974674785</v>
       </c>
       <c r="AE17" t="n">
-        <v>1372696.217156913</v>
+        <v>1470826.81665475</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.446108176378525e-06</v>
+        <v>2.472683823847918e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.24045138888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1241688.016782698</v>
+        <v>1330453.169591623</v>
       </c>
     </row>
     <row r="18">
@@ -48552,28 +48552,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>991.0071782352858</v>
+        <v>1062.727274296174</v>
       </c>
       <c r="AB18" t="n">
-        <v>1355.939741412609</v>
+        <v>1454.070340910446</v>
       </c>
       <c r="AC18" t="n">
-        <v>1226.530755565568</v>
+        <v>1315.295908374493</v>
       </c>
       <c r="AD18" t="n">
-        <v>991007.1782352858</v>
+        <v>1062727.274296174</v>
       </c>
       <c r="AE18" t="n">
-        <v>1355939.741412609</v>
+        <v>1454070.340910446</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.449144823248012e-06</v>
+        <v>2.47787615158354e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.21006944444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>1226530.755565568</v>
+        <v>1315295.908374493</v>
       </c>
     </row>
     <row r="19">
@@ -48658,28 +48658,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>988.8211752735276</v>
+        <v>1060.541271334416</v>
       </c>
       <c r="AB19" t="n">
-        <v>1352.948755720687</v>
+        <v>1451.079355218524</v>
       </c>
       <c r="AC19" t="n">
-        <v>1223.825225350208</v>
+        <v>1312.590378159133</v>
       </c>
       <c r="AD19" t="n">
-        <v>988821.1752735276</v>
+        <v>1060541.271334416</v>
       </c>
       <c r="AE19" t="n">
-        <v>1352948.755720687</v>
+        <v>1451079.355218524</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.45094783232677e-06</v>
+        <v>2.480959096176565e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.19270833333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1223825.225350209</v>
+        <v>1312590.378159133</v>
       </c>
     </row>
     <row r="20">
@@ -48764,28 +48764,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>989.0514799882662</v>
+        <v>1060.771576049155</v>
       </c>
       <c r="AB20" t="n">
-        <v>1353.263868791719</v>
+        <v>1451.394468289556</v>
       </c>
       <c r="AC20" t="n">
-        <v>1224.110264472006</v>
+        <v>1312.875417280931</v>
       </c>
       <c r="AD20" t="n">
-        <v>989051.4799882662</v>
+        <v>1060771.576049155</v>
       </c>
       <c r="AE20" t="n">
-        <v>1353263.868791719</v>
+        <v>1451394.468289556</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.452181470117499e-06</v>
+        <v>2.483068479319161e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.18185763888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>1224110.264472006</v>
+        <v>1312875.417280931</v>
       </c>
     </row>
     <row r="21">
@@ -48870,28 +48870,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>992.5282171470476</v>
+        <v>1064.248313207936</v>
       </c>
       <c r="AB21" t="n">
-        <v>1358.020893955182</v>
+        <v>1456.151493453019</v>
       </c>
       <c r="AC21" t="n">
-        <v>1228.413285830394</v>
+        <v>1317.178438639319</v>
       </c>
       <c r="AD21" t="n">
-        <v>992528.2171470476</v>
+        <v>1064248.313207936</v>
       </c>
       <c r="AE21" t="n">
-        <v>1358020.893955182</v>
+        <v>1456151.493453019</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.45227636533217e-06</v>
+        <v>2.483230739560899e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.1796875</v>
       </c>
       <c r="AH21" t="n">
-        <v>1228413.285830394</v>
+        <v>1317178.438639319</v>
       </c>
     </row>
     <row r="22">
@@ -48976,28 +48976,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>996.7968657118774</v>
+        <v>1068.516961772766</v>
       </c>
       <c r="AB22" t="n">
-        <v>1363.861447241067</v>
+        <v>1461.992046738903</v>
       </c>
       <c r="AC22" t="n">
-        <v>1233.696424907941</v>
+        <v>1322.461577716866</v>
       </c>
       <c r="AD22" t="n">
-        <v>996796.8657118775</v>
+        <v>1068516.961772766</v>
       </c>
       <c r="AE22" t="n">
-        <v>1363861.447241066</v>
+        <v>1461992.046738903</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.452181470117499e-06</v>
+        <v>2.483068479319161e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.18185763888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>1233696.424907942</v>
+        <v>1322461.577716867</v>
       </c>
     </row>
   </sheetData>
@@ -49273,28 +49273,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.0983649008397</v>
+        <v>549.1165412887971</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.364739769894</v>
+        <v>751.3254771033979</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.1495786410054</v>
+        <v>679.620028060579</v>
       </c>
       <c r="AD2" t="n">
-        <v>484098.3649008397</v>
+        <v>549116.541288797</v>
       </c>
       <c r="AE2" t="n">
-        <v>662364.7397698939</v>
+        <v>751325.4771033979</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.645631949172464e-06</v>
+        <v>3.527347229455385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.08072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>599149.5786410054</v>
+        <v>679620.028060579</v>
       </c>
     </row>
   </sheetData>
@@ -49570,28 +49570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1469.8808785889</v>
+        <v>1563.578066993673</v>
       </c>
       <c r="AB2" t="n">
-        <v>2011.155864653055</v>
+        <v>2139.356491456682</v>
       </c>
       <c r="AC2" t="n">
-        <v>1819.213971605551</v>
+        <v>1935.179310517749</v>
       </c>
       <c r="AD2" t="n">
-        <v>1469880.8785889</v>
+        <v>1563578.066993673</v>
       </c>
       <c r="AE2" t="n">
-        <v>2011155.864653055</v>
+        <v>2139356.491456682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.120053352658749e-06</v>
+        <v>2.063622737990824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.24956597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1819213.971605551</v>
+        <v>1935179.310517749</v>
       </c>
     </row>
     <row r="3">
@@ -49676,28 +49676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1012.599707848528</v>
+        <v>1087.540408303142</v>
       </c>
       <c r="AB3" t="n">
-        <v>1385.483593024622</v>
+        <v>1488.020765536993</v>
       </c>
       <c r="AC3" t="n">
-        <v>1253.254983444787</v>
+        <v>1346.006152124403</v>
       </c>
       <c r="AD3" t="n">
-        <v>1012599.707848528</v>
+        <v>1087540.408303142</v>
       </c>
       <c r="AE3" t="n">
-        <v>1385483.593024622</v>
+        <v>1488020.765536993</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39094803308158e-06</v>
+        <v>2.562727910788455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.30642361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1253254.983444787</v>
+        <v>1346006.152124403</v>
       </c>
     </row>
     <row r="4">
@@ -49782,28 +49782,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.3197078020453</v>
+        <v>970.1750674020882</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.015922932588</v>
+        <v>1327.436328322761</v>
       </c>
       <c r="AC4" t="n">
-        <v>1108.102122568547</v>
+        <v>1200.747668216224</v>
       </c>
       <c r="AD4" t="n">
-        <v>895319.7078020453</v>
+        <v>970175.0674020882</v>
       </c>
       <c r="AE4" t="n">
-        <v>1225015.922932588</v>
+        <v>1327436.328322761</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.483963567640345e-06</v>
+        <v>2.734102757929617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.28428819444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1108102.122568547</v>
+        <v>1200747.668216224</v>
       </c>
     </row>
     <row r="5">
@@ -49888,28 +49888,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>827.1554998552422</v>
+        <v>902.0961108013058</v>
       </c>
       <c r="AB5" t="n">
-        <v>1131.750646427154</v>
+        <v>1234.287696469977</v>
       </c>
       <c r="AC5" t="n">
-        <v>1023.737953154154</v>
+        <v>1116.489011052544</v>
       </c>
       <c r="AD5" t="n">
-        <v>827155.4998552422</v>
+        <v>902096.1108013059</v>
       </c>
       <c r="AE5" t="n">
-        <v>1131750.646427154</v>
+        <v>1234287.696469977</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.532143524305054e-06</v>
+        <v>2.822871077628579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.80251736111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1023737.953154154</v>
+        <v>1116489.011052544</v>
       </c>
     </row>
     <row r="6">
@@ -49994,28 +49994,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.666484459505</v>
+        <v>844.2289409390402</v>
       </c>
       <c r="AB6" t="n">
-        <v>1065.405836378323</v>
+        <v>1155.111281745067</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.7249986608581</v>
+        <v>1044.869082224183</v>
       </c>
       <c r="AD6" t="n">
-        <v>778666.484459505</v>
+        <v>844228.9409390402</v>
       </c>
       <c r="AE6" t="n">
-        <v>1065405.836378323</v>
+        <v>1155111.281745067</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.566736942213988e-06</v>
+        <v>2.886607116284449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.47699652777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>963724.9986608581</v>
+        <v>1044869.082224183</v>
       </c>
     </row>
     <row r="7">
@@ -50100,28 +50100,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>750.4476798664808</v>
+        <v>816.0101363460161</v>
       </c>
       <c r="AB7" t="n">
-        <v>1026.795623008352</v>
+        <v>1116.501068375095</v>
       </c>
       <c r="AC7" t="n">
-        <v>928.7996898651415</v>
+        <v>1009.943773428467</v>
       </c>
       <c r="AD7" t="n">
-        <v>750447.6798664809</v>
+        <v>816010.1363460161</v>
       </c>
       <c r="AE7" t="n">
-        <v>1026795.623008352</v>
+        <v>1116501.068375095</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.580009945460014e-06</v>
+        <v>2.911061729303469e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.35546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>928799.6898651415</v>
+        <v>1009943.773428467</v>
       </c>
     </row>
     <row r="8">
@@ -50206,28 +50206,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>746.8640079283144</v>
+        <v>812.4264644078496</v>
       </c>
       <c r="AB8" t="n">
-        <v>1021.892284962104</v>
+        <v>1111.597730328848</v>
       </c>
       <c r="AC8" t="n">
-        <v>924.36431952015</v>
+        <v>1005.508403083475</v>
       </c>
       <c r="AD8" t="n">
-        <v>746864.0079283144</v>
+        <v>812426.4644078496</v>
       </c>
       <c r="AE8" t="n">
-        <v>1021892.284962104</v>
+        <v>1111597.730328848</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.582622741374586e-06</v>
+        <v>2.915875629504063e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.33159722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>924364.3195201501</v>
+        <v>1005508.403083475</v>
       </c>
     </row>
     <row r="9">
@@ -50312,28 +50312,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>751.3381797673577</v>
+        <v>816.9006362468929</v>
       </c>
       <c r="AB9" t="n">
-        <v>1028.014044258814</v>
+        <v>1117.719489625558</v>
       </c>
       <c r="AC9" t="n">
-        <v>929.9018267015251</v>
+        <v>1011.04591026485</v>
       </c>
       <c r="AD9" t="n">
-        <v>751338.1797673577</v>
+        <v>816900.6362468929</v>
       </c>
       <c r="AE9" t="n">
-        <v>1028014.044258814</v>
+        <v>1117719.489625558</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.582622741374586e-06</v>
+        <v>2.915875629504063e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.33159722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>929901.8267015251</v>
+        <v>1011045.91026485</v>
       </c>
     </row>
   </sheetData>
@@ -50609,28 +50609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1991.125490404259</v>
+        <v>2107.605320440516</v>
       </c>
       <c r="AB2" t="n">
-        <v>2724.345738228149</v>
+        <v>2883.718580411184</v>
       </c>
       <c r="AC2" t="n">
-        <v>2464.338004614911</v>
+        <v>2608.500526421186</v>
       </c>
       <c r="AD2" t="n">
-        <v>1991125.490404259</v>
+        <v>2107605.320440516</v>
       </c>
       <c r="AE2" t="n">
-        <v>2724345.738228149</v>
+        <v>2883718.580411184</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.607436023602839e-07</v>
+        <v>1.716298332200474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.73003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2464338.004614912</v>
+        <v>2608500.526421187</v>
       </c>
     </row>
     <row r="3">
@@ -50715,28 +50715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1258.739118222555</v>
+        <v>1345.992404190084</v>
       </c>
       <c r="AB3" t="n">
-        <v>1722.262393202768</v>
+        <v>1841.646188406846</v>
       </c>
       <c r="AC3" t="n">
-        <v>1557.892087605946</v>
+        <v>1665.882060951955</v>
       </c>
       <c r="AD3" t="n">
-        <v>1258739.118222555</v>
+        <v>1345992.404190084</v>
       </c>
       <c r="AE3" t="n">
-        <v>1722262.393202768</v>
+        <v>1841646.188406846</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.267239728542671e-06</v>
+        <v>2.263831294065016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.23090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1557892.087605946</v>
+        <v>1665882.060951955</v>
       </c>
     </row>
     <row r="4">
@@ -50821,28 +50821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1083.91853216136</v>
+        <v>1171.171728620338</v>
       </c>
       <c r="AB4" t="n">
-        <v>1483.065154813909</v>
+        <v>1602.448827548438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1341.523497933486</v>
+        <v>1449.513360498269</v>
       </c>
       <c r="AD4" t="n">
-        <v>1083918.53216136</v>
+        <v>1171171.728620338</v>
       </c>
       <c r="AE4" t="n">
-        <v>1483065.154813909</v>
+        <v>1602448.827548438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37691825038732e-06</v>
+        <v>2.459763969190542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1341523.497933486</v>
+        <v>1449513.360498269</v>
       </c>
     </row>
     <row r="5">
@@ -50927,28 +50927,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1010.34955548041</v>
+        <v>1087.889077207037</v>
       </c>
       <c r="AB5" t="n">
-        <v>1382.404835284847</v>
+        <v>1488.497829713489</v>
       </c>
       <c r="AC5" t="n">
-        <v>1250.470058022633</v>
+        <v>1346.437685965458</v>
       </c>
       <c r="AD5" t="n">
-        <v>1010349.55548041</v>
+        <v>1087889.077207037</v>
       </c>
       <c r="AE5" t="n">
-        <v>1382404.835284848</v>
+        <v>1488497.829713489</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432964981274906e-06</v>
+        <v>2.559887363727163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.23871527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1250470.058022633</v>
+        <v>1346437.685965458</v>
       </c>
     </row>
     <row r="6">
@@ -51033,28 +51033,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>952.4929677123893</v>
+        <v>1030.117740785037</v>
       </c>
       <c r="AB6" t="n">
-        <v>1303.242899448132</v>
+        <v>1409.452538529422</v>
       </c>
       <c r="AC6" t="n">
-        <v>1178.863226237699</v>
+        <v>1274.936366431236</v>
       </c>
       <c r="AD6" t="n">
-        <v>952492.9677123893</v>
+        <v>1030117.740785037</v>
       </c>
       <c r="AE6" t="n">
-        <v>1303242.899448132</v>
+        <v>1409452.538529422</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.467478497781984e-06</v>
+        <v>2.621543242229966e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.88064236111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1178863.226237699</v>
+        <v>1274936.366431236</v>
       </c>
     </row>
     <row r="7">
@@ -51139,28 +51139,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>904.4018223569254</v>
+        <v>982.0265954295727</v>
       </c>
       <c r="AB7" t="n">
-        <v>1237.44247274119</v>
+        <v>1343.652111822481</v>
       </c>
       <c r="AC7" t="n">
-        <v>1119.342699904189</v>
+        <v>1215.415840097726</v>
       </c>
       <c r="AD7" t="n">
-        <v>904401.8223569255</v>
+        <v>982026.5954295727</v>
       </c>
       <c r="AE7" t="n">
-        <v>1237442.47274119</v>
+        <v>1343652.111822481</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.502696371768798e-06</v>
+        <v>2.68445740396752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1119342.699904189</v>
+        <v>1215415.840097726</v>
       </c>
     </row>
     <row r="8">
@@ -51245,28 +51245,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>887.247636520451</v>
+        <v>955.1587348607472</v>
       </c>
       <c r="AB8" t="n">
-        <v>1213.971358890459</v>
+        <v>1306.890319665862</v>
       </c>
       <c r="AC8" t="n">
-        <v>1098.111636217456</v>
+        <v>1182.162541789035</v>
       </c>
       <c r="AD8" t="n">
-        <v>887247.6365204511</v>
+        <v>955158.7348607472</v>
       </c>
       <c r="AE8" t="n">
-        <v>1213971.358890459</v>
+        <v>1306890.319665862</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.507727496624057e-06</v>
+        <v>2.693445141358599e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.48350694444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1098111.636217456</v>
+        <v>1182162.541789035</v>
       </c>
     </row>
     <row r="9">
@@ -51351,28 +51351,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>858.9293211761707</v>
+        <v>926.8404195164668</v>
       </c>
       <c r="AB9" t="n">
-        <v>1175.224990520514</v>
+        <v>1268.143951295916</v>
       </c>
       <c r="AC9" t="n">
-        <v>1063.063166863869</v>
+        <v>1147.114072435448</v>
       </c>
       <c r="AD9" t="n">
-        <v>858929.3211761707</v>
+        <v>926840.4195164668</v>
       </c>
       <c r="AE9" t="n">
-        <v>1175224.990520514</v>
+        <v>1268143.951295916</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.521110288739046e-06</v>
+        <v>2.71735252281887e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.35546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1063063.166863869</v>
+        <v>1147114.072435448</v>
       </c>
     </row>
     <row r="10">
@@ -51457,28 +51457,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>834.7381931829026</v>
+        <v>902.6492915231988</v>
       </c>
       <c r="AB10" t="n">
-        <v>1142.125621962879</v>
+        <v>1235.044582738282</v>
       </c>
       <c r="AC10" t="n">
-        <v>1033.122755586119</v>
+        <v>1117.173661157698</v>
       </c>
       <c r="AD10" t="n">
-        <v>834738.1931829026</v>
+        <v>902649.2915231988</v>
       </c>
       <c r="AE10" t="n">
-        <v>1142125.621962879</v>
+        <v>1235044.582738282</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.529461955998776e-06</v>
+        <v>2.732272166888061e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1033122.755586119</v>
+        <v>1117173.661157698</v>
       </c>
     </row>
     <row r="11">
@@ -51563,28 +51563,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>828.3599416383016</v>
+        <v>896.2710399785977</v>
       </c>
       <c r="AB11" t="n">
-        <v>1133.398616810957</v>
+        <v>1226.31757758636</v>
       </c>
       <c r="AC11" t="n">
-        <v>1025.228643557468</v>
+        <v>1109.279549129047</v>
       </c>
       <c r="AD11" t="n">
-        <v>828359.9416383016</v>
+        <v>896271.0399785978</v>
       </c>
       <c r="AE11" t="n">
-        <v>1133398.616810957</v>
+        <v>1226317.57758636</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.533788723374299e-06</v>
+        <v>2.740001621044389e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1025228.643557468</v>
+        <v>1109279.549129047</v>
       </c>
     </row>
     <row r="12">
@@ -51669,28 +51669,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>832.2537132786854</v>
+        <v>900.1648116189813</v>
       </c>
       <c r="AB12" t="n">
-        <v>1138.726246950411</v>
+        <v>1231.645207725814</v>
       </c>
       <c r="AC12" t="n">
-        <v>1030.047812153789</v>
+        <v>1114.098717725368</v>
       </c>
       <c r="AD12" t="n">
-        <v>832253.7132786853</v>
+        <v>900164.8116189813</v>
       </c>
       <c r="AE12" t="n">
-        <v>1138726.246950411</v>
+        <v>1231645.207725814</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.533285610888774e-06</v>
+        <v>2.739102847305282e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.24262152777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1030047.812153789</v>
+        <v>1114098.717725368</v>
       </c>
     </row>
   </sheetData>
